--- a/Перечень. Радиоприборы!.xlsx
+++ b/Перечень. Радиоприборы!.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\openserver\domains\Priemka24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\verstka\Priemka24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11368,117 +11368,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -11550,6 +11439,117 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11834,8 +11834,8 @@
   <dimension ref="A1:I393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C276" sqref="C276"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11872,54 +11872,54 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-    </row>
-    <row r="4" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A4" s="129">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+    </row>
+    <row r="4" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A4" s="92">
         <v>1</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="147" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="111" t="s">
         <v>1011</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-    </row>
-    <row r="5" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A5" s="129">
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+    </row>
+    <row r="5" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A5" s="92">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="147" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="111" t="s">
         <v>1012</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
     </row>
     <row r="6" spans="1:9" ht="28.5">
       <c r="A6" s="5">
@@ -11951,27 +11951,27 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A8" s="129">
+    <row r="8" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A8" s="92">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="147" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="111" t="s">
         <v>1013</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" ht="28.5">
       <c r="A9" s="5">
@@ -11988,27 +11988,27 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A10" s="129">
+    <row r="10" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A10" s="92">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="147" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F10" s="148" t="s">
+      <c r="F10" s="111" t="s">
         <v>1014</v>
       </c>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="28.5">
       <c r="A11" s="5">
@@ -12025,71 +12025,71 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A12" s="129">
+    <row r="12" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A12" s="92">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="147" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="111" t="s">
         <v>1012</v>
       </c>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-    </row>
-    <row r="13" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A13" s="129">
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A13" s="92">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="147" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F13" s="148" t="s">
+      <c r="F13" s="111" t="s">
         <v>1012</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-    </row>
-    <row r="14" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A14" s="129">
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+    </row>
+    <row r="14" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A14" s="92">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="147" t="s">
+      <c r="D14" s="97"/>
+      <c r="E14" s="110" t="s">
         <v>1010</v>
       </c>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="111" t="s">
         <v>1017</v>
       </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:9" ht="28.5">
       <c r="A15" s="5">
@@ -12107,330 +12107,330 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-    </row>
-    <row r="17" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A17" s="129">
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+    </row>
+    <row r="17" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A17" s="92">
         <v>13</v>
       </c>
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="150" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130" t="s">
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93" t="s">
         <v>1018</v>
       </c>
-      <c r="I17" s="130" t="s">
+      <c r="I17" s="93" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A18" s="129">
+    <row r="18" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A18" s="92">
         <f>A17+1</f>
         <v>14</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="150" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130">
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A19" s="129">
+    <row r="19" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A19" s="92">
         <f t="shared" ref="A19:A44" si="1">A18+1</f>
         <v>15</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="150" t="s">
+      <c r="D19" s="97"/>
+      <c r="E19" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130" t="s">
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A20" s="129">
+    <row r="20" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A20" s="92">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="150" t="s">
+      <c r="D20" s="97"/>
+      <c r="E20" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130" t="s">
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93" t="s">
         <v>1021</v>
       </c>
-      <c r="I20" s="130">
+      <c r="I20" s="93">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A21" s="129">
+    <row r="21" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A21" s="92">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="150" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130">
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93">
         <v>2</v>
       </c>
-      <c r="I21" s="130">
+      <c r="I21" s="93">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A22" s="129">
+    <row r="22" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A22" s="92">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="150" t="s">
+      <c r="D22" s="97"/>
+      <c r="E22" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130">
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A23" s="129">
+    <row r="23" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A23" s="92">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="150" t="s">
+      <c r="D23" s="97"/>
+      <c r="E23" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130" t="s">
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A24" s="129">
+    <row r="24" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A24" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="150" t="s">
+      <c r="D24" s="97"/>
+      <c r="E24" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130">
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93">
         <v>50</v>
       </c>
-      <c r="I24" s="130">
+      <c r="I24" s="93">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A25" s="129">
+    <row r="25" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A25" s="92">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="150" t="s">
+      <c r="D25" s="97"/>
+      <c r="E25" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130" t="s">
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93" t="s">
         <v>1023</v>
       </c>
-      <c r="I25" s="130" t="s">
+      <c r="I25" s="93" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A26" s="129">
+    <row r="26" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A26" s="92">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="150" t="s">
+      <c r="D26" s="97"/>
+      <c r="E26" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130" t="s">
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A27" s="129">
+    <row r="27" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A27" s="92">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="136" t="s">
+      <c r="C27" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="150" t="s">
+      <c r="D27" s="97"/>
+      <c r="E27" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93">
         <v>2.5</v>
       </c>
-      <c r="I27" s="130">
+      <c r="I27" s="93">
         <v>46.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A28" s="129">
+    <row r="28" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A28" s="92">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="150" t="s">
+      <c r="D28" s="97"/>
+      <c r="E28" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130" t="s">
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A29" s="129">
+    <row r="29" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A29" s="92">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="150" t="s">
+      <c r="D29" s="97"/>
+      <c r="E29" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130">
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93">
         <v>20</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="93">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A30" s="129">
+    <row r="30" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A30" s="92">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="99" t="s">
         <v>1028</v>
       </c>
-      <c r="D30" s="134"/>
-      <c r="E30" s="150" t="s">
+      <c r="D30" s="97"/>
+      <c r="E30" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130" t="s">
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -12453,93 +12453,93 @@
       <c r="H31" s="85"/>
       <c r="I31" s="85"/>
     </row>
-    <row r="32" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A32" s="129">
+    <row r="32" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A32" s="92">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="150" t="s">
+      <c r="D32" s="97"/>
+      <c r="E32" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130" t="s">
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A33" s="129">
+    <row r="33" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A33" s="92">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="150" t="s">
+      <c r="D33" s="97"/>
+      <c r="E33" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130">
+      <c r="F33" s="93"/>
+      <c r="G33" s="93">
         <v>400</v>
       </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-    </row>
-    <row r="34" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A34" s="129">
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+    </row>
+    <row r="34" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A34" s="92">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="150" t="s">
+      <c r="D34" s="97"/>
+      <c r="E34" s="113" t="s">
         <v>1032</v>
       </c>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130">
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A35" s="129">
+    <row r="35" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A35" s="92">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="151" t="s">
+      <c r="C35" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="149">
+      <c r="D35" s="112">
         <v>29</v>
       </c>
-      <c r="E35" s="149" t="s">
+      <c r="E35" s="112" t="s">
         <v>1010</v>
       </c>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
     </row>
     <row r="36" spans="1:9" ht="28.5">
       <c r="A36" s="5">
@@ -12557,27 +12557,27 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="135" customFormat="1" ht="29.25">
-      <c r="A37" s="129" t="s">
+    <row r="37" spans="1:9" s="98" customFormat="1" ht="29.25">
+      <c r="A37" s="92" t="s">
         <v>1030</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="152" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="115" t="s">
         <v>1031</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="112">
         <v>132</v>
       </c>
-      <c r="E37" s="149" t="s">
+      <c r="E37" s="112" t="s">
         <v>1010</v>
       </c>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
     </row>
     <row r="38" spans="1:9" ht="28.5">
-      <c r="A38" s="131">
+      <c r="A38" s="94">
         <f>A36+1</f>
         <v>33</v>
       </c>
@@ -12643,52 +12643,52 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A42" s="129">
+    <row r="42" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A42" s="92">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="112">
         <v>35</v>
       </c>
-      <c r="E42" s="149" t="s">
+      <c r="E42" s="112" t="s">
         <v>1010</v>
       </c>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-    </row>
-    <row r="43" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A43" s="129">
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+    </row>
+    <row r="43" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A43" s="92">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B43" s="132" t="s">
+      <c r="B43" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="151" t="s">
+      <c r="C43" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="149">
+      <c r="D43" s="112">
         <v>155</v>
       </c>
-      <c r="E43" s="149" t="s">
+      <c r="E43" s="112" t="s">
         <v>1010</v>
       </c>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:9" ht="28.5">
-      <c r="A44" s="131">
+      <c r="A44" s="94">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -12704,28 +12704,28 @@
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="18.75">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="94"/>
-    </row>
-    <row r="46" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A46" s="129">
+      <c r="B45" s="125"/>
+      <c r="C45" s="126"/>
+    </row>
+    <row r="46" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A46" s="92">
         <v>39</v>
       </c>
-      <c r="B46" s="132" t="s">
+      <c r="B46" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="133" t="s">
+      <c r="C46" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="5" t="s">
@@ -12736,347 +12736,347 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A48" s="129">
+    <row r="48" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A48" s="92">
         <f>A46+1</f>
         <v>40</v>
       </c>
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-    </row>
-    <row r="49" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A49" s="129">
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+    </row>
+    <row r="49" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A49" s="92">
         <f t="shared" ref="A49:A81" si="2">A48+1</f>
         <v>41</v>
       </c>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="133" t="s">
+      <c r="C49" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-    </row>
-    <row r="50" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A50" s="129">
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+    </row>
+    <row r="50" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A50" s="92">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="133" t="s">
+      <c r="C50" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-    </row>
-    <row r="51" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A51" s="129">
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+    </row>
+    <row r="51" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A51" s="92">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B51" s="132" t="s">
+      <c r="B51" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="133" t="s">
+      <c r="C51" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-    </row>
-    <row r="52" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A52" s="129">
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+    </row>
+    <row r="52" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A52" s="92">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B52" s="132" t="s">
+      <c r="B52" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="133" t="s">
+      <c r="C52" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-    </row>
-    <row r="53" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A53" s="129">
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+    </row>
+    <row r="53" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A53" s="92">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="133" t="s">
+      <c r="C53" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-    </row>
-    <row r="54" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A54" s="129">
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+    </row>
+    <row r="54" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A54" s="92">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B54" s="132" t="s">
+      <c r="B54" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="133" t="s">
+      <c r="C54" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-    </row>
-    <row r="55" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A55" s="129">
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+    </row>
+    <row r="55" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A55" s="92">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B55" s="132" t="s">
+      <c r="B55" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-    </row>
-    <row r="56" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A56" s="129">
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+    </row>
+    <row r="56" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A56" s="92">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="133" t="s">
+      <c r="C56" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-    </row>
-    <row r="57" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A57" s="129">
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="97"/>
+    </row>
+    <row r="57" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A57" s="92">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="133" t="s">
+      <c r="C57" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-    </row>
-    <row r="58" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A58" s="129">
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+    </row>
+    <row r="58" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A58" s="92">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="133" t="s">
+      <c r="C58" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-    </row>
-    <row r="59" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A59" s="129">
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+    </row>
+    <row r="59" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A59" s="92">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B59" s="132" t="s">
+      <c r="B59" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-    </row>
-    <row r="60" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A60" s="129">
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+    </row>
+    <row r="60" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A60" s="92">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="133" t="s">
+      <c r="C60" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-    </row>
-    <row r="61" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A61" s="129">
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+    </row>
+    <row r="61" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A61" s="92">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B61" s="132" t="s">
+      <c r="B61" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="133" t="s">
+      <c r="C61" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
-    </row>
-    <row r="62" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A62" s="129">
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+    </row>
+    <row r="62" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A62" s="92">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B62" s="132" t="s">
+      <c r="B62" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="133" t="s">
+      <c r="C62" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="134"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
-    </row>
-    <row r="63" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A63" s="129">
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+    </row>
+    <row r="63" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A63" s="92">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B63" s="132" t="s">
+      <c r="B63" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="133" t="s">
+      <c r="C63" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-    </row>
-    <row r="64" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A64" s="129">
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+    </row>
+    <row r="64" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A64" s="92">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B64" s="132" t="s">
+      <c r="B64" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="133" t="s">
+      <c r="C64" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
-    </row>
-    <row r="65" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A65" s="129">
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+    </row>
+    <row r="65" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A65" s="92">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B65" s="132" t="s">
+      <c r="B65" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="133" t="s">
+      <c r="C65" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
-    </row>
-    <row r="66" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A66" s="129">
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+    </row>
+    <row r="66" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A66" s="92">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="133" t="s">
+      <c r="C66" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="134"/>
-      <c r="E66" s="134"/>
-      <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="134"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="5" t="s">
@@ -13089,59 +13089,59 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A68" s="129">
+    <row r="68" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A68" s="92">
         <f>A66+1</f>
         <v>59</v>
       </c>
-      <c r="B68" s="132" t="s">
+      <c r="B68" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="133" t="s">
+      <c r="C68" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="134"/>
-      <c r="E68" s="134"/>
-      <c r="F68" s="134"/>
-      <c r="G68" s="134"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="134"/>
-    </row>
-    <row r="69" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A69" s="129">
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+    </row>
+    <row r="69" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A69" s="92">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B69" s="132" t="s">
+      <c r="B69" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="133" t="s">
+      <c r="C69" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="134"/>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="134"/>
-      <c r="H69" s="134"/>
-      <c r="I69" s="134"/>
-    </row>
-    <row r="70" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A70" s="129">
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+    </row>
+    <row r="70" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A70" s="92">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B70" s="132" t="s">
+      <c r="B70" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="133" t="s">
+      <c r="C70" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="134"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="134"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="5">
@@ -13155,826 +13155,826 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A72" s="129">
+    <row r="72" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A72" s="92">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B72" s="132" t="s">
+      <c r="B72" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="133" t="s">
+      <c r="C72" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="134"/>
-      <c r="I72" s="134"/>
-    </row>
-    <row r="73" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A73" s="129">
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+    </row>
+    <row r="73" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A73" s="92">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B73" s="132" t="s">
+      <c r="B73" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="133" t="s">
+      <c r="C73" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-    </row>
-    <row r="74" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A74" s="129">
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+    </row>
+    <row r="74" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A74" s="92">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B74" s="132" t="s">
+      <c r="B74" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="133" t="s">
+      <c r="C74" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="134"/>
-      <c r="I74" s="134"/>
-    </row>
-    <row r="75" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A75" s="129">
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+    </row>
+    <row r="75" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A75" s="92">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B75" s="132" t="s">
+      <c r="B75" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="133" t="s">
+      <c r="C75" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="134"/>
-    </row>
-    <row r="76" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A76" s="129">
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+    </row>
+    <row r="76" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A76" s="92">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B76" s="132" t="s">
+      <c r="B76" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="133" t="s">
+      <c r="C76" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="I76" s="134"/>
-    </row>
-    <row r="77" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A77" s="129">
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+    </row>
+    <row r="77" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A77" s="92">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B77" s="132" t="s">
+      <c r="B77" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="134"/>
-      <c r="E77" s="134"/>
-      <c r="F77" s="134"/>
-      <c r="G77" s="134"/>
-      <c r="H77" s="134"/>
-      <c r="I77" s="134"/>
-    </row>
-    <row r="78" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A78" s="129">
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+    </row>
+    <row r="78" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A78" s="92">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="133" t="s">
+      <c r="C78" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="134"/>
-      <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="134"/>
-    </row>
-    <row r="79" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A79" s="129">
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+    </row>
+    <row r="79" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A79" s="92">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B79" s="132" t="s">
+      <c r="B79" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="133" t="s">
+      <c r="C79" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="134"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="134"/>
-      <c r="H79" s="134"/>
-      <c r="I79" s="134"/>
-    </row>
-    <row r="80" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A80" s="129">
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+    </row>
+    <row r="80" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A80" s="92">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B80" s="132" t="s">
+      <c r="B80" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="133" t="s">
+      <c r="C80" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="134"/>
-      <c r="E80" s="134"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="134"/>
-      <c r="H80" s="134"/>
-      <c r="I80" s="134"/>
-    </row>
-    <row r="81" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A81" s="129">
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+    </row>
+    <row r="81" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A81" s="92">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B81" s="132" t="s">
+      <c r="B81" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="133" t="s">
+      <c r="C81" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="134"/>
-      <c r="E81" s="134"/>
-      <c r="F81" s="134"/>
-      <c r="G81" s="134"/>
-      <c r="H81" s="134"/>
-      <c r="I81" s="134"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="97"/>
     </row>
     <row r="82" spans="1:9" ht="18.75">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="93"/>
-      <c r="C82" s="94"/>
-    </row>
-    <row r="83" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A83" s="129">
+      <c r="B82" s="125"/>
+      <c r="C82" s="126"/>
+    </row>
+    <row r="83" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A83" s="92">
         <v>73</v>
       </c>
-      <c r="B83" s="132" t="s">
+      <c r="B83" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="136" t="s">
+      <c r="C83" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="134"/>
-      <c r="H83" s="134"/>
-      <c r="I83" s="134"/>
-    </row>
-    <row r="84" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A84" s="129">
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="97"/>
+    </row>
+    <row r="84" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A84" s="92">
         <f>A83+1</f>
         <v>74</v>
       </c>
-      <c r="B84" s="132" t="s">
+      <c r="B84" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="136" t="s">
+      <c r="C84" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="134"/>
-      <c r="I84" s="134"/>
-    </row>
-    <row r="85" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A85" s="129">
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+    </row>
+    <row r="85" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A85" s="92">
         <f t="shared" ref="A85:A104" si="3">A84+1</f>
         <v>75</v>
       </c>
-      <c r="B85" s="132" t="s">
+      <c r="B85" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="136" t="s">
+      <c r="C85" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="134"/>
-      <c r="H85" s="134"/>
-      <c r="I85" s="134"/>
-    </row>
-    <row r="86" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A86" s="129">
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+    </row>
+    <row r="86" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A86" s="92">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="B86" s="132" t="s">
+      <c r="B86" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="136" t="s">
+      <c r="C86" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="134"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="134"/>
-      <c r="G86" s="134"/>
-      <c r="H86" s="134"/>
-      <c r="I86" s="134"/>
-    </row>
-    <row r="87" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A87" s="129">
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+    </row>
+    <row r="87" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A87" s="92">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="B87" s="132" t="s">
+      <c r="B87" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="136" t="s">
+      <c r="C87" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="134"/>
-      <c r="G87" s="134"/>
-      <c r="H87" s="134"/>
-      <c r="I87" s="134"/>
-    </row>
-    <row r="88" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A88" s="129">
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="97"/>
+      <c r="H87" s="97"/>
+      <c r="I87" s="97"/>
+    </row>
+    <row r="88" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A88" s="92">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="B88" s="132" t="s">
+      <c r="B88" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="136" t="s">
+      <c r="C88" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D88" s="134"/>
-      <c r="E88" s="134"/>
-      <c r="F88" s="134"/>
-      <c r="G88" s="134"/>
-      <c r="H88" s="134"/>
-      <c r="I88" s="134"/>
-    </row>
-    <row r="89" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A89" s="129">
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="97"/>
+      <c r="I88" s="97"/>
+    </row>
+    <row r="89" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A89" s="92">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="B89" s="132" t="s">
+      <c r="B89" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="136" t="s">
+      <c r="C89" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D89" s="134"/>
-      <c r="E89" s="134"/>
-      <c r="F89" s="134"/>
-      <c r="G89" s="134"/>
-      <c r="H89" s="134"/>
-      <c r="I89" s="134"/>
-    </row>
-    <row r="90" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A90" s="129">
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="97"/>
+      <c r="I89" s="97"/>
+    </row>
+    <row r="90" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A90" s="92">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="B90" s="132" t="s">
+      <c r="B90" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="136" t="s">
+      <c r="C90" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D90" s="134"/>
-      <c r="E90" s="134"/>
-      <c r="F90" s="134"/>
-      <c r="G90" s="134"/>
-      <c r="H90" s="134"/>
-      <c r="I90" s="134"/>
-    </row>
-    <row r="91" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A91" s="129">
+      <c r="D90" s="97"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="97"/>
+      <c r="H90" s="97"/>
+      <c r="I90" s="97"/>
+    </row>
+    <row r="91" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A91" s="92">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="B91" s="132" t="s">
+      <c r="B91" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="136" t="s">
+      <c r="C91" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="D91" s="134"/>
-      <c r="E91" s="134"/>
-      <c r="F91" s="134"/>
-      <c r="G91" s="134"/>
-      <c r="H91" s="134"/>
-      <c r="I91" s="134"/>
-    </row>
-    <row r="92" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A92" s="129">
+      <c r="D91" s="97"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="97"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="97"/>
+      <c r="I91" s="97"/>
+    </row>
+    <row r="92" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A92" s="92">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="B92" s="132" t="s">
+      <c r="B92" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="136" t="s">
+      <c r="C92" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D92" s="134"/>
-      <c r="E92" s="134"/>
-      <c r="F92" s="134"/>
-      <c r="G92" s="134"/>
-      <c r="H92" s="134"/>
-      <c r="I92" s="134"/>
-    </row>
-    <row r="93" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A93" s="129">
+      <c r="D92" s="97"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="97"/>
+      <c r="I92" s="97"/>
+    </row>
+    <row r="93" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A93" s="92">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="B93" s="132" t="s">
+      <c r="B93" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="136" t="s">
+      <c r="C93" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D93" s="134"/>
-      <c r="E93" s="134"/>
-      <c r="F93" s="134"/>
-      <c r="G93" s="134"/>
-      <c r="H93" s="134"/>
-      <c r="I93" s="134"/>
-    </row>
-    <row r="94" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A94" s="129">
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
+      <c r="I93" s="97"/>
+    </row>
+    <row r="94" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A94" s="92">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="B94" s="132" t="s">
+      <c r="B94" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="136" t="s">
+      <c r="C94" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D94" s="134"/>
-      <c r="E94" s="134"/>
-      <c r="F94" s="134"/>
-      <c r="G94" s="134"/>
-      <c r="H94" s="134"/>
-      <c r="I94" s="134"/>
-    </row>
-    <row r="95" spans="1:9" s="135" customFormat="1" ht="41.25">
-      <c r="A95" s="129">
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="97"/>
+      <c r="I94" s="97"/>
+    </row>
+    <row r="95" spans="1:9" s="98" customFormat="1" ht="41.25">
+      <c r="A95" s="92">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="B95" s="132" t="s">
+      <c r="B95" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="136" t="s">
+      <c r="C95" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="D95" s="134"/>
-      <c r="E95" s="134"/>
-      <c r="F95" s="134"/>
-      <c r="G95" s="134"/>
-      <c r="H95" s="134"/>
-      <c r="I95" s="134"/>
-    </row>
-    <row r="96" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A96" s="129">
+      <c r="D95" s="97"/>
+      <c r="E95" s="97"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97"/>
+      <c r="I95" s="97"/>
+    </row>
+    <row r="96" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A96" s="92">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="B96" s="132" t="s">
+      <c r="B96" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="136" t="s">
+      <c r="C96" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="D96" s="134"/>
-      <c r="E96" s="134"/>
-      <c r="F96" s="134"/>
-      <c r="G96" s="134"/>
-      <c r="H96" s="134"/>
-      <c r="I96" s="134"/>
-    </row>
-    <row r="97" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A97" s="129">
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="97"/>
+      <c r="H96" s="97"/>
+      <c r="I96" s="97"/>
+    </row>
+    <row r="97" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A97" s="92">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="B97" s="132" t="s">
+      <c r="B97" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="136" t="s">
+      <c r="C97" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="D97" s="134"/>
-      <c r="E97" s="134"/>
-      <c r="F97" s="134"/>
-      <c r="G97" s="134"/>
-      <c r="H97" s="134"/>
-      <c r="I97" s="134"/>
-    </row>
-    <row r="98" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A98" s="129">
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="97"/>
+    </row>
+    <row r="98" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A98" s="92">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B98" s="132" t="s">
+      <c r="B98" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="136" t="s">
+      <c r="C98" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="D98" s="134"/>
-      <c r="E98" s="134"/>
-      <c r="F98" s="134"/>
-      <c r="G98" s="134"/>
-      <c r="H98" s="134"/>
-      <c r="I98" s="134"/>
-    </row>
-    <row r="99" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A99" s="129">
+      <c r="D98" s="97"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="97"/>
+      <c r="I98" s="97"/>
+    </row>
+    <row r="99" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A99" s="92">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B99" s="132" t="s">
+      <c r="B99" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="136" t="s">
+      <c r="C99" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="134"/>
-      <c r="E99" s="134"/>
-      <c r="F99" s="134"/>
-      <c r="G99" s="134"/>
-      <c r="H99" s="134"/>
-      <c r="I99" s="134"/>
-    </row>
-    <row r="100" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A100" s="129">
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="97"/>
+    </row>
+    <row r="100" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A100" s="92">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B100" s="132" t="s">
+      <c r="B100" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="136" t="s">
+      <c r="C100" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
-      <c r="F100" s="134"/>
-      <c r="G100" s="134"/>
-      <c r="H100" s="134"/>
-      <c r="I100" s="134"/>
-    </row>
-    <row r="101" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A101" s="129">
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="97"/>
+      <c r="I100" s="97"/>
+    </row>
+    <row r="101" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A101" s="92">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B101" s="132" t="s">
+      <c r="B101" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="136" t="s">
+      <c r="C101" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="134"/>
-      <c r="E101" s="134"/>
-      <c r="F101" s="134"/>
-      <c r="G101" s="134"/>
-      <c r="H101" s="134"/>
-      <c r="I101" s="134"/>
-    </row>
-    <row r="102" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A102" s="129">
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="97"/>
+    </row>
+    <row r="102" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A102" s="92">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B102" s="132" t="s">
+      <c r="B102" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="136" t="s">
+      <c r="C102" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D102" s="134"/>
-      <c r="E102" s="134"/>
-      <c r="F102" s="134"/>
-      <c r="G102" s="134"/>
-      <c r="H102" s="134"/>
-      <c r="I102" s="134"/>
-    </row>
-    <row r="103" spans="1:9" s="141" customFormat="1" ht="31.5">
-      <c r="A103" s="137">
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="97"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="97"/>
+      <c r="I102" s="97"/>
+    </row>
+    <row r="103" spans="1:9" s="104" customFormat="1" ht="31.5">
+      <c r="A103" s="100">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B103" s="138" t="s">
+      <c r="B103" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="139" t="s">
+      <c r="C103" s="102" t="s">
         <v>1034</v>
       </c>
-      <c r="D103" s="140"/>
-      <c r="E103" s="140" t="s">
+      <c r="D103" s="103"/>
+      <c r="E103" s="103" t="s">
         <v>1035</v>
       </c>
-      <c r="F103" s="140"/>
-      <c r="G103" s="140"/>
-      <c r="H103" s="140"/>
-      <c r="I103" s="140"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="103"/>
     </row>
     <row r="104" spans="1:9" ht="31.5">
       <c r="A104" s="5">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B104" s="138" t="s">
+      <c r="B104" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="139" t="s">
+      <c r="C104" s="102" t="s">
         <v>1036</v>
       </c>
-      <c r="E104" s="140" t="s">
+      <c r="E104" s="103" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="18.75">
-      <c r="A105" s="92" t="s">
+      <c r="A105" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="94"/>
-    </row>
-    <row r="106" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A106" s="129">
+      <c r="B105" s="125"/>
+      <c r="C105" s="126"/>
+    </row>
+    <row r="106" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A106" s="92">
         <v>95</v>
       </c>
-      <c r="B106" s="132" t="s">
+      <c r="B106" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="136" t="s">
+      <c r="C106" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="D106" s="134"/>
-      <c r="E106" s="134"/>
-      <c r="F106" s="134"/>
-      <c r="G106" s="134"/>
-      <c r="H106" s="134"/>
-      <c r="I106" s="134"/>
-    </row>
-    <row r="107" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A107" s="129">
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="97"/>
+    </row>
+    <row r="107" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A107" s="92">
         <f>A106+1</f>
         <v>96</v>
       </c>
-      <c r="B107" s="132" t="s">
+      <c r="B107" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="136" t="s">
+      <c r="C107" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="D107" s="134"/>
-      <c r="E107" s="134"/>
-      <c r="F107" s="134"/>
-      <c r="G107" s="134"/>
-      <c r="H107" s="134"/>
-      <c r="I107" s="134"/>
-    </row>
-    <row r="108" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A108" s="129">
+      <c r="D107" s="97"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="97"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="97"/>
+      <c r="I107" s="97"/>
+    </row>
+    <row r="108" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A108" s="92">
         <f t="shared" ref="A108:A139" si="4">A107+1</f>
         <v>97</v>
       </c>
-      <c r="B108" s="132" t="s">
+      <c r="B108" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="136" t="s">
+      <c r="C108" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
-      <c r="F108" s="134"/>
-      <c r="G108" s="134"/>
-      <c r="H108" s="134"/>
-      <c r="I108" s="134"/>
-    </row>
-    <row r="109" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A109" s="129">
+      <c r="D108" s="97"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="97"/>
+      <c r="G108" s="97"/>
+      <c r="H108" s="97"/>
+      <c r="I108" s="97"/>
+    </row>
+    <row r="109" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A109" s="92">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B109" s="132" t="s">
+      <c r="B109" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="136" t="s">
+      <c r="C109" s="99" t="s">
         <v>1001</v>
       </c>
-      <c r="D109" s="134"/>
-      <c r="E109" s="134"/>
-      <c r="F109" s="134"/>
-      <c r="G109" s="134"/>
-      <c r="H109" s="134"/>
-      <c r="I109" s="134"/>
-    </row>
-    <row r="110" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A110" s="129">
+      <c r="D109" s="97"/>
+      <c r="E109" s="97"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="97"/>
+      <c r="H109" s="97"/>
+      <c r="I109" s="97"/>
+    </row>
+    <row r="110" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A110" s="92">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="B110" s="132" t="s">
+      <c r="B110" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="136" t="s">
+      <c r="C110" s="99" t="s">
         <v>1000</v>
       </c>
-      <c r="D110" s="134"/>
-      <c r="E110" s="134"/>
-      <c r="F110" s="134"/>
-      <c r="G110" s="134"/>
-      <c r="H110" s="134"/>
-      <c r="I110" s="134"/>
-    </row>
-    <row r="111" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A111" s="129">
+      <c r="D110" s="97"/>
+      <c r="E110" s="97"/>
+      <c r="F110" s="97"/>
+      <c r="G110" s="97"/>
+      <c r="H110" s="97"/>
+      <c r="I110" s="97"/>
+    </row>
+    <row r="111" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A111" s="92">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B111" s="132" t="s">
+      <c r="B111" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="136" t="s">
+      <c r="C111" s="99" t="s">
         <v>1002</v>
       </c>
-      <c r="D111" s="134"/>
-      <c r="E111" s="134"/>
-      <c r="F111" s="134"/>
-      <c r="G111" s="134"/>
-      <c r="H111" s="134"/>
-      <c r="I111" s="134"/>
-    </row>
-    <row r="112" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A112" s="129">
+      <c r="D111" s="97"/>
+      <c r="E111" s="97"/>
+      <c r="F111" s="97"/>
+      <c r="G111" s="97"/>
+      <c r="H111" s="97"/>
+      <c r="I111" s="97"/>
+    </row>
+    <row r="112" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A112" s="92">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="B112" s="132" t="s">
+      <c r="B112" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="136" t="s">
+      <c r="C112" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="D112" s="134"/>
-      <c r="E112" s="134"/>
-      <c r="F112" s="134"/>
-      <c r="G112" s="134"/>
-      <c r="H112" s="134"/>
-      <c r="I112" s="134"/>
-    </row>
-    <row r="113" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A113" s="129">
+      <c r="D112" s="97"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="97"/>
+      <c r="G112" s="97"/>
+      <c r="H112" s="97"/>
+      <c r="I112" s="97"/>
+    </row>
+    <row r="113" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A113" s="92">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="B113" s="132" t="s">
+      <c r="B113" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="136" t="s">
+      <c r="C113" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="D113" s="134"/>
-      <c r="E113" s="134"/>
-      <c r="F113" s="134"/>
-      <c r="G113" s="134"/>
-      <c r="H113" s="134"/>
-      <c r="I113" s="134"/>
-    </row>
-    <row r="114" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A114" s="129">
+      <c r="D113" s="97"/>
+      <c r="E113" s="97"/>
+      <c r="F113" s="97"/>
+      <c r="G113" s="97"/>
+      <c r="H113" s="97"/>
+      <c r="I113" s="97"/>
+    </row>
+    <row r="114" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A114" s="92">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B114" s="132" t="s">
+      <c r="B114" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C114" s="136" t="s">
+      <c r="C114" s="99" t="s">
         <v>1015</v>
       </c>
-      <c r="D114" s="134"/>
-      <c r="E114" s="134"/>
-      <c r="F114" s="134"/>
-      <c r="G114" s="134"/>
-      <c r="H114" s="134"/>
-      <c r="I114" s="134"/>
-    </row>
-    <row r="115" spans="1:9" s="146" customFormat="1" ht="28.5">
-      <c r="A115" s="142">
+      <c r="D114" s="97"/>
+      <c r="E114" s="97"/>
+      <c r="F114" s="97"/>
+      <c r="G114" s="97"/>
+      <c r="H114" s="97"/>
+      <c r="I114" s="97"/>
+    </row>
+    <row r="115" spans="1:9" s="109" customFormat="1" ht="28.5">
+      <c r="A115" s="105">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B115" s="143" t="s">
+      <c r="B115" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="144" t="s">
+      <c r="C115" s="107" t="s">
         <v>1037</v>
       </c>
-      <c r="D115" s="145"/>
-      <c r="E115" s="145"/>
-      <c r="F115" s="145"/>
-      <c r="G115" s="145"/>
-      <c r="H115" s="145"/>
-      <c r="I115" s="145"/>
-    </row>
-    <row r="116" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A116" s="129">
+      <c r="D115" s="108"/>
+      <c r="E115" s="108"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="108"/>
+      <c r="I115" s="108"/>
+    </row>
+    <row r="116" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A116" s="92">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B116" s="132" t="s">
+      <c r="B116" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C116" s="136" t="s">
+      <c r="C116" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="134"/>
-      <c r="E116" s="134"/>
-      <c r="F116" s="134"/>
-      <c r="G116" s="134"/>
-      <c r="H116" s="134"/>
-      <c r="I116" s="134"/>
-    </row>
-    <row r="117" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A117" s="129">
+      <c r="D116" s="97"/>
+      <c r="E116" s="97"/>
+      <c r="F116" s="97"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="97"/>
+      <c r="I116" s="97"/>
+    </row>
+    <row r="117" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A117" s="92">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="B117" s="132" t="s">
+      <c r="B117" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="136" t="s">
+      <c r="C117" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="D117" s="134"/>
-      <c r="E117" s="134"/>
-      <c r="F117" s="134"/>
-      <c r="G117" s="134"/>
-      <c r="H117" s="134"/>
-      <c r="I117" s="134"/>
-    </row>
-    <row r="118" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A118" s="129">
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="97"/>
+      <c r="G117" s="97"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+    </row>
+    <row r="118" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A118" s="92">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="B118" s="132" t="s">
+      <c r="B118" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="136" t="s">
+      <c r="C118" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="D118" s="134"/>
-      <c r="E118" s="134"/>
-      <c r="F118" s="134"/>
-      <c r="G118" s="134"/>
-      <c r="H118" s="134"/>
-      <c r="I118" s="134"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="97"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="97"/>
     </row>
     <row r="119" spans="1:9" ht="28.5">
       <c r="A119" s="5">
@@ -14015,41 +14015,41 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A122" s="129">
+    <row r="122" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A122" s="92">
         <f>A120+1</f>
         <v>110</v>
       </c>
-      <c r="B122" s="132" t="s">
+      <c r="B122" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C122" s="136" t="s">
+      <c r="C122" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="D122" s="134"/>
-      <c r="E122" s="134"/>
-      <c r="F122" s="134"/>
-      <c r="G122" s="134"/>
-      <c r="H122" s="134"/>
-      <c r="I122" s="134"/>
-    </row>
-    <row r="123" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A123" s="129">
+      <c r="D122" s="97"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="97"/>
+      <c r="G122" s="97"/>
+      <c r="H122" s="97"/>
+      <c r="I122" s="97"/>
+    </row>
+    <row r="123" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A123" s="92">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="B123" s="132" t="s">
+      <c r="B123" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="136" t="s">
+      <c r="C123" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="D123" s="134"/>
-      <c r="E123" s="134"/>
-      <c r="F123" s="134"/>
-      <c r="G123" s="134"/>
-      <c r="H123" s="134"/>
-      <c r="I123" s="134"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="97"/>
     </row>
     <row r="124" spans="1:9" ht="28.5">
       <c r="A124" s="5">
@@ -14063,23 +14063,23 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A125" s="129">
+    <row r="125" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A125" s="92">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="B125" s="132" t="s">
+      <c r="B125" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C125" s="136" t="s">
+      <c r="C125" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="D125" s="134"/>
-      <c r="E125" s="134"/>
-      <c r="F125" s="134"/>
-      <c r="G125" s="134"/>
-      <c r="H125" s="134"/>
-      <c r="I125" s="134"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="97"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
     </row>
     <row r="126" spans="1:9" ht="28.5">
       <c r="A126" s="5" t="s">
@@ -14092,23 +14092,23 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A127" s="129">
+    <row r="127" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A127" s="92">
         <f>A125+1</f>
         <v>114</v>
       </c>
-      <c r="B127" s="132" t="s">
+      <c r="B127" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C127" s="136" t="s">
+      <c r="C127" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D127" s="134"/>
-      <c r="E127" s="134"/>
-      <c r="F127" s="134"/>
-      <c r="G127" s="134"/>
-      <c r="H127" s="134"/>
-      <c r="I127" s="134"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="97"/>
+      <c r="G127" s="97"/>
+      <c r="H127" s="97"/>
+      <c r="I127" s="97"/>
     </row>
     <row r="128" spans="1:9" ht="28.5">
       <c r="A128" s="5">
@@ -14122,23 +14122,23 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A129" s="129">
+    <row r="129" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A129" s="92">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="B129" s="132" t="s">
+      <c r="B129" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C129" s="136" t="s">
+      <c r="C129" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="D129" s="134"/>
-      <c r="E129" s="134"/>
-      <c r="F129" s="134"/>
-      <c r="G129" s="134"/>
-      <c r="H129" s="134"/>
-      <c r="I129" s="134"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="97"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="97"/>
+      <c r="I129" s="97"/>
     </row>
     <row r="130" spans="1:9" ht="28.5">
       <c r="A130" s="5" t="s">
@@ -14151,77 +14151,77 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A131" s="129">
+    <row r="131" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A131" s="92">
         <f>A129+1</f>
         <v>117</v>
       </c>
-      <c r="B131" s="132" t="s">
+      <c r="B131" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C131" s="136" t="s">
+      <c r="C131" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="D131" s="134"/>
-      <c r="E131" s="134"/>
-      <c r="F131" s="134"/>
-      <c r="G131" s="134"/>
-      <c r="H131" s="134"/>
-      <c r="I131" s="134"/>
-    </row>
-    <row r="132" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A132" s="129">
+      <c r="D131" s="97"/>
+      <c r="E131" s="97"/>
+      <c r="F131" s="97"/>
+      <c r="G131" s="97"/>
+      <c r="H131" s="97"/>
+      <c r="I131" s="97"/>
+    </row>
+    <row r="132" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A132" s="92">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B132" s="132" t="s">
+      <c r="B132" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="136" t="s">
+      <c r="C132" s="99" t="s">
         <v>311</v>
       </c>
-      <c r="D132" s="134"/>
-      <c r="E132" s="134"/>
-      <c r="F132" s="134"/>
-      <c r="G132" s="134"/>
-      <c r="H132" s="134"/>
-      <c r="I132" s="134"/>
-    </row>
-    <row r="133" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A133" s="129">
+      <c r="D132" s="97"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="97"/>
+      <c r="G132" s="97"/>
+      <c r="H132" s="97"/>
+      <c r="I132" s="97"/>
+    </row>
+    <row r="133" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A133" s="92">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B133" s="132" t="s">
+      <c r="B133" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="136" t="s">
+      <c r="C133" s="99" t="s">
         <v>1016</v>
       </c>
-      <c r="D133" s="134"/>
-      <c r="E133" s="134"/>
-      <c r="F133" s="134"/>
-      <c r="G133" s="134"/>
-      <c r="H133" s="134"/>
-      <c r="I133" s="134"/>
-    </row>
-    <row r="134" spans="1:9" s="135" customFormat="1" ht="41.25">
-      <c r="A134" s="129">
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+    </row>
+    <row r="134" spans="1:9" s="98" customFormat="1" ht="41.25">
+      <c r="A134" s="92">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B134" s="132" t="s">
+      <c r="B134" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="136" t="s">
+      <c r="C134" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="D134" s="134"/>
-      <c r="E134" s="134"/>
-      <c r="F134" s="134"/>
-      <c r="G134" s="134"/>
-      <c r="H134" s="134"/>
-      <c r="I134" s="134"/>
+      <c r="D134" s="97"/>
+      <c r="E134" s="97"/>
+      <c r="F134" s="97"/>
+      <c r="G134" s="97"/>
+      <c r="H134" s="97"/>
+      <c r="I134" s="97"/>
     </row>
     <row r="135" spans="1:9" ht="29.25">
       <c r="A135" s="5">
@@ -14284,11 +14284,11 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18.75">
-      <c r="A140" s="92" t="s">
+      <c r="A140" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B140" s="93"/>
-      <c r="C140" s="94"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="126"/>
     </row>
     <row r="141" spans="1:9" ht="31.5">
       <c r="A141" s="5">
@@ -14372,113 +14372,113 @@
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A148" s="129">
+    <row r="148" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A148" s="92">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="B148" s="132" t="s">
+      <c r="B148" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C148" s="136" t="s">
+      <c r="C148" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="D148" s="134"/>
-      <c r="E148" s="134"/>
-      <c r="F148" s="134"/>
-      <c r="G148" s="134"/>
-      <c r="H148" s="134"/>
-      <c r="I148" s="134"/>
-    </row>
-    <row r="149" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A149" s="129">
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="97"/>
+      <c r="G148" s="97"/>
+      <c r="H148" s="97"/>
+      <c r="I148" s="97"/>
+    </row>
+    <row r="149" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A149" s="92">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
-      <c r="B149" s="132" t="s">
+      <c r="B149" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="136" t="s">
+      <c r="C149" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="D149" s="134"/>
-      <c r="E149" s="134"/>
-      <c r="F149" s="134"/>
-      <c r="G149" s="134"/>
-      <c r="H149" s="134"/>
-      <c r="I149" s="134"/>
-    </row>
-    <row r="150" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A150" s="129">
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="97"/>
+    </row>
+    <row r="150" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A150" s="92">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="B150" s="132" t="s">
+      <c r="B150" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C150" s="136" t="s">
+      <c r="C150" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="D150" s="134"/>
-      <c r="E150" s="134"/>
-      <c r="F150" s="134"/>
-      <c r="G150" s="134"/>
-      <c r="H150" s="134"/>
-      <c r="I150" s="134"/>
-    </row>
-    <row r="151" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A151" s="129">
+      <c r="D150" s="97"/>
+      <c r="E150" s="97"/>
+      <c r="F150" s="97"/>
+      <c r="G150" s="97"/>
+      <c r="H150" s="97"/>
+      <c r="I150" s="97"/>
+    </row>
+    <row r="151" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A151" s="92">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="B151" s="132" t="s">
+      <c r="B151" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C151" s="136" t="s">
+      <c r="C151" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="D151" s="134"/>
-      <c r="E151" s="134"/>
-      <c r="F151" s="134"/>
-      <c r="G151" s="134"/>
-      <c r="H151" s="134"/>
-      <c r="I151" s="134"/>
-    </row>
-    <row r="152" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A152" s="129">
+      <c r="D151" s="97"/>
+      <c r="E151" s="97"/>
+      <c r="F151" s="97"/>
+      <c r="G151" s="97"/>
+      <c r="H151" s="97"/>
+      <c r="I151" s="97"/>
+    </row>
+    <row r="152" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A152" s="92">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="B152" s="132" t="s">
+      <c r="B152" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C152" s="136" t="s">
+      <c r="C152" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="D152" s="134"/>
-      <c r="E152" s="134"/>
-      <c r="F152" s="134"/>
-      <c r="G152" s="134"/>
-      <c r="H152" s="134"/>
-      <c r="I152" s="134"/>
-    </row>
-    <row r="153" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A153" s="129">
+      <c r="D152" s="97"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="97"/>
+      <c r="I152" s="97"/>
+    </row>
+    <row r="153" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A153" s="92">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="B153" s="132" t="s">
+      <c r="B153" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="136" t="s">
+      <c r="C153" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="D153" s="134"/>
-      <c r="E153" s="134"/>
-      <c r="F153" s="134"/>
-      <c r="G153" s="134"/>
-      <c r="H153" s="134"/>
-      <c r="I153" s="134"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
     </row>
     <row r="154" spans="1:9" ht="28.5">
       <c r="A154" s="5">
@@ -14492,23 +14492,23 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A155" s="129">
+    <row r="155" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A155" s="92">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-      <c r="B155" s="132" t="s">
+      <c r="B155" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C155" s="136" t="s">
+      <c r="C155" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="D155" s="134"/>
-      <c r="E155" s="134"/>
-      <c r="F155" s="134"/>
-      <c r="G155" s="134"/>
-      <c r="H155" s="134"/>
-      <c r="I155" s="134"/>
+      <c r="D155" s="97"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="97"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="97"/>
+      <c r="I155" s="97"/>
     </row>
     <row r="156" spans="1:9" ht="28.5">
       <c r="A156" s="5">
@@ -14522,95 +14522,95 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A157" s="129">
+    <row r="157" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A157" s="92">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
-      <c r="B157" s="132" t="s">
+      <c r="B157" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C157" s="136" t="s">
+      <c r="C157" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="D157" s="134"/>
-      <c r="E157" s="134"/>
-      <c r="F157" s="134"/>
-      <c r="G157" s="134"/>
-      <c r="H157" s="134"/>
-      <c r="I157" s="134"/>
-    </row>
-    <row r="158" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A158" s="129">
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="97"/>
+    </row>
+    <row r="158" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A158" s="92">
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
-      <c r="B158" s="132" t="s">
+      <c r="B158" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C158" s="136" t="s">
+      <c r="C158" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="D158" s="134"/>
-      <c r="E158" s="134"/>
-      <c r="F158" s="134"/>
-      <c r="G158" s="134"/>
-      <c r="H158" s="134"/>
-      <c r="I158" s="134"/>
-    </row>
-    <row r="159" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A159" s="129">
+      <c r="D158" s="97"/>
+      <c r="E158" s="97"/>
+      <c r="F158" s="97"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
+      <c r="I158" s="97"/>
+    </row>
+    <row r="159" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A159" s="92">
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
-      <c r="B159" s="132" t="s">
+      <c r="B159" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C159" s="136" t="s">
+      <c r="C159" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="D159" s="134"/>
-      <c r="E159" s="134"/>
-      <c r="F159" s="134"/>
-      <c r="G159" s="134"/>
-      <c r="H159" s="134"/>
-      <c r="I159" s="134"/>
-    </row>
-    <row r="160" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A160" s="129">
+      <c r="D159" s="97"/>
+      <c r="E159" s="97"/>
+      <c r="F159" s="97"/>
+      <c r="G159" s="97"/>
+      <c r="H159" s="97"/>
+      <c r="I159" s="97"/>
+    </row>
+    <row r="160" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A160" s="92">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="B160" s="132" t="s">
+      <c r="B160" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C160" s="136" t="s">
+      <c r="C160" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="D160" s="134"/>
-      <c r="E160" s="134"/>
-      <c r="F160" s="134"/>
-      <c r="G160" s="134"/>
-      <c r="H160" s="134"/>
-      <c r="I160" s="134"/>
-    </row>
-    <row r="161" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A161" s="129">
+      <c r="D160" s="97"/>
+      <c r="E160" s="97"/>
+      <c r="F160" s="97"/>
+      <c r="G160" s="97"/>
+      <c r="H160" s="97"/>
+      <c r="I160" s="97"/>
+    </row>
+    <row r="161" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A161" s="92">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="B161" s="132" t="s">
+      <c r="B161" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C161" s="136" t="s">
+      <c r="C161" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="D161" s="134"/>
-      <c r="E161" s="134"/>
-      <c r="F161" s="134"/>
-      <c r="G161" s="134"/>
-      <c r="H161" s="134"/>
-      <c r="I161" s="134"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="97"/>
+      <c r="F161" s="97"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="97"/>
+      <c r="I161" s="97"/>
     </row>
     <row r="162" spans="1:9" ht="31.5">
       <c r="A162" s="5">
@@ -14636,41 +14636,41 @@
         <v>243</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="135" customFormat="1" ht="31.5">
-      <c r="A164" s="129">
+    <row r="164" spans="1:9" s="98" customFormat="1" ht="31.5">
+      <c r="A164" s="92">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="B164" s="132" t="s">
+      <c r="B164" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C164" s="136" t="s">
+      <c r="C164" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="D164" s="134"/>
-      <c r="E164" s="134"/>
-      <c r="F164" s="134"/>
-      <c r="G164" s="134"/>
-      <c r="H164" s="134"/>
-      <c r="I164" s="134"/>
-    </row>
-    <row r="165" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A165" s="129">
+      <c r="D164" s="97"/>
+      <c r="E164" s="97"/>
+      <c r="F164" s="97"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="97"/>
+      <c r="I164" s="97"/>
+    </row>
+    <row r="165" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A165" s="92">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="B165" s="132" t="s">
+      <c r="B165" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C165" s="136" t="s">
+      <c r="C165" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D165" s="134"/>
-      <c r="E165" s="134"/>
-      <c r="F165" s="134"/>
-      <c r="G165" s="134"/>
-      <c r="H165" s="134"/>
-      <c r="I165" s="134"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
     </row>
     <row r="166" spans="1:9" ht="29.25">
       <c r="A166" s="5">
@@ -14707,176 +14707,176 @@
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:9" ht="18.75">
-      <c r="A170" s="92" t="s">
+      <c r="A170" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="B170" s="93"/>
-      <c r="C170" s="94"/>
-    </row>
-    <row r="171" spans="1:9" s="135" customFormat="1" ht="57">
-      <c r="A171" s="129">
+      <c r="B170" s="125"/>
+      <c r="C170" s="126"/>
+    </row>
+    <row r="171" spans="1:9" s="98" customFormat="1" ht="57">
+      <c r="A171" s="92">
         <v>152</v>
       </c>
-      <c r="B171" s="132" t="s">
+      <c r="B171" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C171" s="136" t="s">
+      <c r="C171" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="D171" s="134"/>
-      <c r="E171" s="134"/>
-      <c r="F171" s="134"/>
-      <c r="G171" s="134"/>
-      <c r="H171" s="134"/>
-      <c r="I171" s="134"/>
-    </row>
-    <row r="172" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A172" s="129">
+      <c r="D171" s="97"/>
+      <c r="E171" s="97"/>
+      <c r="F171" s="97"/>
+      <c r="G171" s="97"/>
+      <c r="H171" s="97"/>
+      <c r="I171" s="97"/>
+    </row>
+    <row r="172" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A172" s="92">
         <f>A171+1</f>
         <v>153</v>
       </c>
-      <c r="B172" s="132" t="s">
+      <c r="B172" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C172" s="136" t="s">
+      <c r="C172" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="D172" s="134"/>
-      <c r="E172" s="134"/>
-      <c r="F172" s="134"/>
-      <c r="G172" s="134"/>
-      <c r="H172" s="134"/>
-      <c r="I172" s="134"/>
-    </row>
-    <row r="173" spans="1:9" s="135" customFormat="1" ht="28.5">
-      <c r="A173" s="129">
+      <c r="D172" s="97"/>
+      <c r="E172" s="97"/>
+      <c r="F172" s="97"/>
+      <c r="G172" s="97"/>
+      <c r="H172" s="97"/>
+      <c r="I172" s="97"/>
+    </row>
+    <row r="173" spans="1:9" s="98" customFormat="1" ht="28.5">
+      <c r="A173" s="92">
         <f>A172+1</f>
         <v>154</v>
       </c>
-      <c r="B173" s="132" t="s">
+      <c r="B173" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C173" s="136" t="s">
+      <c r="C173" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="D173" s="134"/>
-      <c r="E173" s="134"/>
-      <c r="F173" s="134"/>
-      <c r="G173" s="134"/>
-      <c r="H173" s="134"/>
-      <c r="I173" s="134"/>
-    </row>
-    <row r="174" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A174" s="129"/>
-      <c r="B174" s="132" t="s">
+      <c r="D173" s="97"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="97"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
+    </row>
+    <row r="174" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A174" s="92"/>
+      <c r="B174" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C174" s="153" t="s">
+      <c r="C174" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="D174" s="134"/>
-      <c r="E174" s="134"/>
-      <c r="F174" s="134"/>
-      <c r="G174" s="134"/>
-      <c r="H174" s="134"/>
-      <c r="I174" s="134"/>
-    </row>
-    <row r="175" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A175" s="129"/>
-      <c r="B175" s="132" t="s">
+      <c r="D174" s="97"/>
+      <c r="E174" s="97"/>
+      <c r="F174" s="97"/>
+      <c r="G174" s="97"/>
+      <c r="H174" s="97"/>
+      <c r="I174" s="97"/>
+    </row>
+    <row r="175" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A175" s="92"/>
+      <c r="B175" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="153" t="s">
+      <c r="C175" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D175" s="134"/>
-      <c r="E175" s="134"/>
-      <c r="F175" s="134"/>
-      <c r="G175" s="134"/>
-      <c r="H175" s="134"/>
-      <c r="I175" s="134"/>
-    </row>
-    <row r="176" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A176" s="129"/>
-      <c r="B176" s="132" t="s">
+      <c r="D175" s="97"/>
+      <c r="E175" s="97"/>
+      <c r="F175" s="97"/>
+      <c r="G175" s="97"/>
+      <c r="H175" s="97"/>
+      <c r="I175" s="97"/>
+    </row>
+    <row r="176" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A176" s="92"/>
+      <c r="B176" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C176" s="153" t="s">
+      <c r="C176" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D176" s="134"/>
-      <c r="E176" s="134"/>
-      <c r="F176" s="134"/>
-      <c r="G176" s="134"/>
-      <c r="H176" s="134"/>
-      <c r="I176" s="134"/>
-    </row>
-    <row r="177" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A177" s="129"/>
-      <c r="B177" s="132" t="s">
+      <c r="D176" s="97"/>
+      <c r="E176" s="97"/>
+      <c r="F176" s="97"/>
+      <c r="G176" s="97"/>
+      <c r="H176" s="97"/>
+      <c r="I176" s="97"/>
+    </row>
+    <row r="177" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A177" s="92"/>
+      <c r="B177" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C177" s="153" t="s">
+      <c r="C177" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D177" s="134"/>
-      <c r="E177" s="134"/>
-      <c r="F177" s="134"/>
-      <c r="G177" s="134"/>
-      <c r="H177" s="134"/>
-      <c r="I177" s="134"/>
-    </row>
-    <row r="178" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A178" s="129"/>
-      <c r="B178" s="132" t="s">
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
+    </row>
+    <row r="178" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A178" s="92"/>
+      <c r="B178" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C178" s="153" t="s">
+      <c r="C178" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D178" s="134"/>
-      <c r="E178" s="134"/>
-      <c r="F178" s="134"/>
-      <c r="G178" s="134"/>
-      <c r="H178" s="134"/>
-      <c r="I178" s="134"/>
-    </row>
-    <row r="179" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A179" s="129"/>
-      <c r="B179" s="132" t="s">
+      <c r="D178" s="97"/>
+      <c r="E178" s="97"/>
+      <c r="F178" s="97"/>
+      <c r="G178" s="97"/>
+      <c r="H178" s="97"/>
+      <c r="I178" s="97"/>
+    </row>
+    <row r="179" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A179" s="92"/>
+      <c r="B179" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C179" s="153" t="s">
+      <c r="C179" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D179" s="134"/>
-      <c r="E179" s="134"/>
-      <c r="F179" s="134"/>
-      <c r="G179" s="134"/>
-      <c r="H179" s="134"/>
-      <c r="I179" s="134"/>
-    </row>
-    <row r="180" spans="1:9" s="135" customFormat="1" ht="15.75">
-      <c r="A180" s="129"/>
-      <c r="B180" s="132" t="s">
+      <c r="D179" s="97"/>
+      <c r="E179" s="97"/>
+      <c r="F179" s="97"/>
+      <c r="G179" s="97"/>
+      <c r="H179" s="97"/>
+      <c r="I179" s="97"/>
+    </row>
+    <row r="180" spans="1:9" s="98" customFormat="1" ht="15.75">
+      <c r="A180" s="92"/>
+      <c r="B180" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C180" s="153" t="s">
+      <c r="C180" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D180" s="134"/>
-      <c r="E180" s="134"/>
-      <c r="F180" s="134"/>
-      <c r="G180" s="134"/>
-      <c r="H180" s="134"/>
-      <c r="I180" s="134"/>
+      <c r="D180" s="97"/>
+      <c r="E180" s="97"/>
+      <c r="F180" s="97"/>
+      <c r="G180" s="97"/>
+      <c r="H180" s="97"/>
+      <c r="I180" s="97"/>
     </row>
     <row r="181" spans="1:9" ht="18.75">
-      <c r="A181" s="92" t="s">
+      <c r="A181" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="B181" s="93"/>
-      <c r="C181" s="94"/>
+      <c r="B181" s="125"/>
+      <c r="C181" s="126"/>
     </row>
     <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="5">
@@ -14885,7 +14885,7 @@
       <c r="B182" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C182" s="136" t="s">
+      <c r="C182" s="99" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14897,7 +14897,7 @@
       <c r="B183" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C183" s="136" t="s">
+      <c r="C183" s="99" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14909,7 +14909,7 @@
       <c r="B184" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C184" s="136" t="s">
+      <c r="C184" s="99" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       <c r="B185" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C185" s="136" t="s">
+      <c r="C185" s="99" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14933,7 +14933,7 @@
       <c r="B186" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C186" s="136" t="s">
+      <c r="C186" s="99" t="s">
         <v>44</v>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       <c r="B187" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C187" s="136" t="s">
+      <c r="C187" s="99" t="s">
         <v>45</v>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       <c r="B188" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C188" s="136" t="s">
+      <c r="C188" s="99" t="s">
         <v>46</v>
       </c>
     </row>
@@ -14969,7 +14969,7 @@
       <c r="B189" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C189" s="136" t="s">
+      <c r="C189" s="99" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14981,7 +14981,7 @@
       <c r="B190" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C190" s="136" t="s">
+      <c r="C190" s="99" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       <c r="B191" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C191" s="136" t="s">
+      <c r="C191" s="99" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       <c r="B192" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C192" s="136" t="s">
+      <c r="C192" s="99" t="s">
         <v>50</v>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       <c r="B193" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C193" s="136" t="s">
+      <c r="C193" s="99" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15029,7 +15029,7 @@
       <c r="B194" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C194" s="136" t="s">
+      <c r="C194" s="99" t="s">
         <v>52</v>
       </c>
     </row>
@@ -15041,7 +15041,7 @@
       <c r="B195" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C195" s="136" t="s">
+      <c r="C195" s="99" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
       <c r="B196" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C196" s="136" t="s">
+      <c r="C196" s="99" t="s">
         <v>54</v>
       </c>
     </row>
@@ -15065,7 +15065,7 @@
       <c r="B197" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C197" s="136" t="s">
+      <c r="C197" s="99" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15077,7 +15077,7 @@
       <c r="B198" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C198" s="136" t="s">
+      <c r="C198" s="99" t="s">
         <v>56</v>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       <c r="B199" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C199" s="136" t="s">
+      <c r="C199" s="99" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15101,7 +15101,7 @@
       <c r="B200" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C200" s="136" t="s">
+      <c r="C200" s="99" t="s">
         <v>58</v>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       <c r="B201" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C201" s="136" t="s">
+      <c r="C201" s="99" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15125,7 +15125,7 @@
       <c r="B202" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C202" s="136" t="s">
+      <c r="C202" s="99" t="s">
         <v>60</v>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       <c r="B203" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C203" s="136" t="s">
+      <c r="C203" s="99" t="s">
         <v>61</v>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
       <c r="B204" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C204" s="136" t="s">
+      <c r="C204" s="99" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       <c r="B205" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C205" s="136" t="s">
+      <c r="C205" s="99" t="s">
         <v>63</v>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       <c r="B206" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C206" s="136" t="s">
+      <c r="C206" s="99" t="s">
         <v>64</v>
       </c>
     </row>
@@ -15185,7 +15185,7 @@
       <c r="B207" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C207" s="136" t="s">
+      <c r="C207" s="99" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15197,7 +15197,7 @@
       <c r="B208" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C208" s="136" t="s">
+      <c r="C208" s="99" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       <c r="B209" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C209" s="136" t="s">
+      <c r="C209" s="99" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="B210" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C210" s="136" t="s">
+      <c r="C210" s="99" t="s">
         <v>68</v>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       <c r="B211" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C211" s="136" t="s">
+      <c r="C211" s="99" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       <c r="B212" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C212" s="136" t="s">
+      <c r="C212" s="99" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       <c r="B213" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C213" s="136" t="s">
+      <c r="C213" s="99" t="s">
         <v>71</v>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       <c r="B214" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C214" s="136" t="s">
+      <c r="C214" s="99" t="s">
         <v>72</v>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
       <c r="B215" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C215" s="136" t="s">
+      <c r="C215" s="99" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       <c r="B216" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C216" s="136" t="s">
+      <c r="C216" s="99" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15305,7 +15305,7 @@
       <c r="B217" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C217" s="136" t="s">
+      <c r="C217" s="99" t="s">
         <v>75</v>
       </c>
     </row>
@@ -15317,7 +15317,7 @@
       <c r="B218" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C218" s="136" t="s">
+      <c r="C218" s="99" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       <c r="B219" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C219" s="136" t="s">
+      <c r="C219" s="99" t="s">
         <v>77</v>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       <c r="B220" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C220" s="136" t="s">
+      <c r="C220" s="99" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       <c r="B221" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C221" s="136" t="s">
+      <c r="C221" s="99" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       <c r="B222" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C222" s="136" t="s">
+      <c r="C222" s="99" t="s">
         <v>80</v>
       </c>
     </row>
@@ -15377,7 +15377,7 @@
       <c r="B223" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C223" s="136" t="s">
+      <c r="C223" s="99" t="s">
         <v>81</v>
       </c>
     </row>
@@ -15389,7 +15389,7 @@
       <c r="B224" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C224" s="136" t="s">
+      <c r="C224" s="99" t="s">
         <v>82</v>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       <c r="B225" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C225" s="136" t="s">
+      <c r="C225" s="99" t="s">
         <v>83</v>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       <c r="B226" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C226" s="136" t="s">
+      <c r="C226" s="99" t="s">
         <v>84</v>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
       <c r="B227" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C227" s="136" t="s">
+      <c r="C227" s="99" t="s">
         <v>85</v>
       </c>
     </row>
@@ -15437,7 +15437,7 @@
       <c r="B228" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="136" t="s">
+      <c r="C228" s="99" t="s">
         <v>86</v>
       </c>
     </row>
@@ -15449,7 +15449,7 @@
       <c r="B229" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C229" s="136" t="s">
+      <c r="C229" s="99" t="s">
         <v>87</v>
       </c>
     </row>
@@ -15461,7 +15461,7 @@
       <c r="B230" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C230" s="136" t="s">
+      <c r="C230" s="99" t="s">
         <v>88</v>
       </c>
     </row>
@@ -15473,7 +15473,7 @@
       <c r="B231" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C231" s="136" t="s">
+      <c r="C231" s="99" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15485,7 +15485,7 @@
       <c r="B232" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C232" s="136" t="s">
+      <c r="C232" s="99" t="s">
         <v>90</v>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       <c r="B233" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C233" s="136" t="s">
+      <c r="C233" s="99" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       <c r="B234" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C234" s="136" t="s">
+      <c r="C234" s="99" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="B235" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C235" s="136" t="s">
+      <c r="C235" s="99" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       <c r="B236" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C236" s="136" t="s">
+      <c r="C236" s="99" t="s">
         <v>94</v>
       </c>
     </row>
@@ -15545,7 +15545,7 @@
       <c r="B237" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C237" s="136" t="s">
+      <c r="C237" s="99" t="s">
         <v>95</v>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       <c r="B238" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C238" s="136" t="s">
+      <c r="C238" s="99" t="s">
         <v>96</v>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       <c r="B239" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C239" s="136" t="s">
+      <c r="C239" s="99" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       <c r="B240" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C240" s="136" t="s">
+      <c r="C240" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       <c r="B241" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C241" s="136" t="s">
+      <c r="C241" s="99" t="s">
         <v>99</v>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       <c r="B242" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C242" s="136" t="s">
+      <c r="C242" s="99" t="s">
         <v>100</v>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       <c r="B243" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C243" s="136" t="s">
+      <c r="C243" s="99" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       <c r="B244" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C244" s="136" t="s">
+      <c r="C244" s="99" t="s">
         <v>102</v>
       </c>
     </row>
@@ -15641,7 +15641,7 @@
       <c r="B245" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C245" s="136" t="s">
+      <c r="C245" s="99" t="s">
         <v>103</v>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       <c r="B246" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C246" s="136" t="s">
+      <c r="C246" s="99" t="s">
         <v>104</v>
       </c>
     </row>
@@ -15665,7 +15665,7 @@
       <c r="B247" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C247" s="136" t="s">
+      <c r="C247" s="99" t="s">
         <v>105</v>
       </c>
     </row>
@@ -15677,7 +15677,7 @@
       <c r="B248" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C248" s="136" t="s">
+      <c r="C248" s="99" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15689,7 +15689,7 @@
       <c r="B249" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C249" s="136" t="s">
+      <c r="C249" s="99" t="s">
         <v>107</v>
       </c>
     </row>
@@ -15701,7 +15701,7 @@
       <c r="B250" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C250" s="136" t="s">
+      <c r="C250" s="99" t="s">
         <v>108</v>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       <c r="B251" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C251" s="136" t="s">
+      <c r="C251" s="99" t="s">
         <v>109</v>
       </c>
     </row>
@@ -15725,16 +15725,16 @@
       <c r="B252" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C252" s="136" t="s">
+      <c r="C252" s="99" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18.75">
-      <c r="A253" s="92" t="s">
+      <c r="A253" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="B253" s="93"/>
-      <c r="C253" s="94"/>
+      <c r="B253" s="125"/>
+      <c r="C253" s="126"/>
     </row>
     <row r="254" spans="1:3" ht="28.5">
       <c r="A254" s="5">
@@ -15743,7 +15743,7 @@
       <c r="B254" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C254" s="136" t="s">
+      <c r="C254" s="99" t="s">
         <v>209</v>
       </c>
     </row>
@@ -15767,7 +15767,7 @@
       <c r="B256" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C256" s="136" t="s">
+      <c r="C256" s="99" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15779,7 +15779,7 @@
       <c r="B257" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C257" s="136" t="s">
+      <c r="C257" s="99" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15791,7 +15791,7 @@
       <c r="B258" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C258" s="136" t="s">
+      <c r="C258" s="99" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       <c r="B259" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C259" s="136" t="s">
+      <c r="C259" s="99" t="s">
         <v>213</v>
       </c>
     </row>
@@ -15815,7 +15815,7 @@
       <c r="B260" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C260" s="136" t="s">
+      <c r="C260" s="99" t="s">
         <v>215</v>
       </c>
     </row>
@@ -15827,7 +15827,7 @@
       <c r="B261" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C261" s="136" t="s">
+      <c r="C261" s="99" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       <c r="B264" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C264" s="136" t="s">
+      <c r="C264" s="99" t="s">
         <v>219</v>
       </c>
     </row>
@@ -15875,7 +15875,7 @@
       <c r="B265" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C265" s="136" t="s">
+      <c r="C265" s="99" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15887,7 +15887,7 @@
       <c r="B266" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C266" s="136" t="s">
+      <c r="C266" s="99" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15899,7 +15899,7 @@
       <c r="B267" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C267" s="136" t="s">
+      <c r="C267" s="99" t="s">
         <v>222</v>
       </c>
     </row>
@@ -15911,7 +15911,7 @@
       <c r="B268" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="136" t="s">
+      <c r="C268" s="99" t="s">
         <v>223</v>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       <c r="B269" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C269" s="136" t="s">
+      <c r="C269" s="99" t="s">
         <v>236</v>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       <c r="B270" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C270" s="136" t="s">
+      <c r="C270" s="99" t="s">
         <v>224</v>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="B271" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C271" s="136" t="s">
+      <c r="C271" s="99" t="s">
         <v>225</v>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       <c r="B272" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C272" s="154" t="s">
+      <c r="C272" s="117" t="s">
         <v>245</v>
       </c>
     </row>
@@ -15971,7 +15971,7 @@
       <c r="B273" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C273" s="154" t="s">
+      <c r="C273" s="117" t="s">
         <v>246</v>
       </c>
     </row>
@@ -15983,7 +15983,7 @@
       <c r="B274" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C274" s="154" t="s">
+      <c r="C274" s="117" t="s">
         <v>323</v>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       <c r="B275" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C275" s="154" t="s">
+      <c r="C275" s="117" t="s">
         <v>324</v>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       <c r="B278" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C278" s="136" t="s">
+      <c r="C278" s="99" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
       <c r="B279" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C279" s="136" t="s">
+      <c r="C279" s="99" t="s">
         <v>229</v>
       </c>
     </row>
@@ -16053,7 +16053,7 @@
       <c r="B280" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C280" s="136" t="s">
+      <c r="C280" s="99" t="s">
         <v>230</v>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       <c r="B282" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C282" s="154" t="s">
+      <c r="C282" s="117" t="s">
         <v>247</v>
       </c>
     </row>
@@ -16088,7 +16088,7 @@
       <c r="B283" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C283" s="154" t="s">
+      <c r="C283" s="117" t="s">
         <v>248</v>
       </c>
     </row>
@@ -16100,7 +16100,7 @@
       <c r="B284" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C284" s="154" t="s">
+      <c r="C284" s="117" t="s">
         <v>249</v>
       </c>
     </row>
@@ -16112,16 +16112,16 @@
       <c r="B285" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C285" s="154" t="s">
+      <c r="C285" s="117" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="18.75">
-      <c r="A286" s="92" t="s">
+      <c r="A286" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="B286" s="93"/>
-      <c r="C286" s="94"/>
+      <c r="B286" s="125"/>
+      <c r="C286" s="126"/>
     </row>
     <row r="287" spans="1:3" ht="31.5">
       <c r="A287" s="5">
@@ -16178,7 +16178,7 @@
       <c r="B291" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C291" s="17" t="s">
+      <c r="C291" s="117" t="s">
         <v>264</v>
       </c>
     </row>
@@ -16190,7 +16190,7 @@
       <c r="B292" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C292" s="17" t="s">
+      <c r="C292" s="117" t="s">
         <v>263</v>
       </c>
     </row>
@@ -16226,7 +16226,7 @@
       <c r="B295" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C295" s="117" t="s">
         <v>256</v>
       </c>
     </row>
@@ -16250,7 +16250,7 @@
       <c r="B297" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C297" s="17" t="s">
+      <c r="C297" s="117" t="s">
         <v>261</v>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       <c r="B298" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C298" s="17" t="s">
+      <c r="C298" s="117" t="s">
         <v>259</v>
       </c>
     </row>
@@ -16298,16 +16298,16 @@
       <c r="B301" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C301" s="17" t="s">
+      <c r="C301" s="117" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="18.75">
-      <c r="A302" s="92" t="s">
+      <c r="A302" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="B302" s="93"/>
-      <c r="C302" s="94"/>
+      <c r="B302" s="125"/>
+      <c r="C302" s="126"/>
     </row>
     <row r="303" spans="1:3" ht="37.5">
       <c r="A303" s="5">
@@ -16328,7 +16328,7 @@
       <c r="B304" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C304" s="117" t="s">
         <v>266</v>
       </c>
     </row>
@@ -16340,7 +16340,7 @@
       <c r="B305" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C305" s="117" t="s">
         <v>267</v>
       </c>
     </row>
@@ -16352,7 +16352,7 @@
       <c r="B306" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C306" s="17" t="s">
+      <c r="C306" s="117" t="s">
         <v>269</v>
       </c>
     </row>
@@ -16364,7 +16364,7 @@
       <c r="B307" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C307" s="17" t="s">
+      <c r="C307" s="117" t="s">
         <v>278</v>
       </c>
     </row>
@@ -16376,7 +16376,7 @@
       <c r="B308" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C308" s="17" t="s">
+      <c r="C308" s="117" t="s">
         <v>268</v>
       </c>
     </row>
@@ -16388,7 +16388,7 @@
       <c r="B309" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C309" s="17" t="s">
+      <c r="C309" s="117" t="s">
         <v>279</v>
       </c>
     </row>
@@ -16400,7 +16400,7 @@
       <c r="B310" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="117" t="s">
         <v>280</v>
       </c>
     </row>
@@ -16412,7 +16412,7 @@
       <c r="B311" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C311" s="17" t="s">
+      <c r="C311" s="117" t="s">
         <v>281</v>
       </c>
     </row>
@@ -16424,7 +16424,7 @@
       <c r="B312" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="117" t="s">
         <v>282</v>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
       <c r="B313" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C313" s="17" t="s">
+      <c r="C313" s="117" t="s">
         <v>283</v>
       </c>
     </row>
@@ -16448,7 +16448,7 @@
       <c r="B314" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C314" s="17" t="s">
+      <c r="C314" s="117" t="s">
         <v>284</v>
       </c>
     </row>
@@ -16460,7 +16460,7 @@
       <c r="B315" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C315" s="17" t="s">
+      <c r="C315" s="117" t="s">
         <v>285</v>
       </c>
     </row>
@@ -16472,7 +16472,7 @@
       <c r="B316" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="C316" s="117" t="s">
         <v>286</v>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       <c r="B317" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C317" s="117" t="s">
         <v>277</v>
       </c>
     </row>
@@ -16496,7 +16496,7 @@
       <c r="B318" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C318" s="17" t="s">
+      <c r="C318" s="117" t="s">
         <v>276</v>
       </c>
     </row>
@@ -16508,7 +16508,7 @@
       <c r="B319" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C319" s="17" t="s">
+      <c r="C319" s="117" t="s">
         <v>271</v>
       </c>
     </row>
@@ -16520,7 +16520,7 @@
       <c r="B320" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C320" s="17" t="s">
+      <c r="C320" s="117" t="s">
         <v>272</v>
       </c>
     </row>
@@ -16532,7 +16532,7 @@
       <c r="B321" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C321" s="17" t="s">
+      <c r="C321" s="117" t="s">
         <v>273</v>
       </c>
     </row>
@@ -16544,7 +16544,7 @@
       <c r="B322" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C322" s="17" t="s">
+      <c r="C322" s="117" t="s">
         <v>274</v>
       </c>
     </row>
@@ -16556,7 +16556,7 @@
       <c r="B323" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C323" s="17" t="s">
+      <c r="C323" s="117" t="s">
         <v>275</v>
       </c>
     </row>
@@ -16568,7 +16568,7 @@
       <c r="B324" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C324" s="17" t="s">
+      <c r="C324" s="117" t="s">
         <v>287</v>
       </c>
     </row>
@@ -16580,7 +16580,7 @@
       <c r="B325" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="117" t="s">
         <v>288</v>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
       <c r="B326" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C326" s="17" t="s">
+      <c r="C326" s="117" t="s">
         <v>293</v>
       </c>
     </row>
@@ -16604,7 +16604,7 @@
       <c r="B327" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C327" s="20" t="s">
+      <c r="C327" s="116" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
       <c r="B328" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C328" s="17" t="s">
+      <c r="C328" s="117" t="s">
         <v>289</v>
       </c>
     </row>
@@ -16628,7 +16628,7 @@
       <c r="B329" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C329" s="20" t="s">
+      <c r="C329" s="116" t="s">
         <v>115</v>
       </c>
     </row>
@@ -16712,16 +16712,16 @@
       <c r="B336" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C336" s="17" t="s">
+      <c r="C336" s="117" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="18.75">
-      <c r="A337" s="97" t="s">
+      <c r="A337" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="B337" s="98"/>
-      <c r="C337" s="99"/>
+      <c r="B337" s="120"/>
+      <c r="C337" s="121"/>
     </row>
     <row r="338" spans="1:3" ht="28.5">
       <c r="A338" s="5">
@@ -16795,11 +16795,11 @@
       </c>
     </row>
     <row r="344" spans="1:3" ht="18.75">
-      <c r="A344" s="97" t="s">
+      <c r="A344" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B344" s="98"/>
-      <c r="C344" s="99"/>
+      <c r="B344" s="120"/>
+      <c r="C344" s="121"/>
     </row>
     <row r="345" spans="1:3" ht="28.5">
       <c r="A345" s="5">
@@ -16808,7 +16808,7 @@
       <c r="B345" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C345" s="17" t="s">
+      <c r="C345" s="117" t="s">
         <v>999</v>
       </c>
     </row>
@@ -16820,7 +16820,7 @@
       <c r="B346" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C346" s="17" t="s">
+      <c r="C346" s="117" t="s">
         <v>344</v>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       <c r="B349" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C349" s="17" t="s">
+      <c r="C349" s="117" t="s">
         <v>336</v>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       <c r="B350" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C350" s="17" t="s">
+      <c r="C350" s="117" t="s">
         <v>337</v>
       </c>
     </row>
@@ -16877,7 +16877,7 @@
       <c r="B351" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C351" s="17" t="s">
+      <c r="C351" s="117" t="s">
         <v>312</v>
       </c>
     </row>
@@ -16889,7 +16889,7 @@
       <c r="B352" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C352" s="17" t="s">
+      <c r="C352" s="117" t="s">
         <v>339</v>
       </c>
     </row>
@@ -16901,7 +16901,7 @@
       <c r="B353" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C353" s="17" t="s">
+      <c r="C353" s="117" t="s">
         <v>338</v>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       <c r="B355" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C355" s="17" t="s">
+      <c r="C355" s="117" t="s">
         <v>341</v>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="B356" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C356" s="17" t="s">
+      <c r="C356" s="117" t="s">
         <v>342</v>
       </c>
     </row>
@@ -16949,7 +16949,7 @@
       <c r="B357" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C357" s="17" t="s">
+      <c r="C357" s="117" t="s">
         <v>343</v>
       </c>
     </row>
@@ -16961,7 +16961,7 @@
       <c r="B358" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C358" s="17" t="s">
+      <c r="C358" s="117" t="s">
         <v>345</v>
       </c>
     </row>
@@ -16973,7 +16973,7 @@
       <c r="B359" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C359" s="17" t="s">
+      <c r="C359" s="117" t="s">
         <v>346</v>
       </c>
     </row>
@@ -16985,7 +16985,7 @@
       <c r="B360" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C360" s="17" t="s">
+      <c r="C360" s="117" t="s">
         <v>347</v>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       <c r="B363" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C363" s="17" t="s">
+      <c r="C363" s="117" t="s">
         <v>352</v>
       </c>
     </row>
@@ -17056,11 +17056,11 @@
       </c>
     </row>
     <row r="367" spans="1:3" ht="18.75">
-      <c r="A367" s="100" t="s">
+      <c r="A367" s="122" t="s">
         <v>1004</v>
       </c>
-      <c r="B367" s="100"/>
-      <c r="C367" s="100"/>
+      <c r="B367" s="122"/>
+      <c r="C367" s="122"/>
     </row>
     <row r="368" spans="1:3" ht="28.5">
       <c r="A368" s="5">
@@ -17118,9 +17118,9 @@
       </c>
     </row>
     <row r="373" spans="1:3" ht="18.75">
-      <c r="A373" s="101"/>
-      <c r="B373" s="101"/>
-      <c r="C373" s="101"/>
+      <c r="A373" s="123"/>
+      <c r="B373" s="123"/>
+      <c r="C373" s="123"/>
     </row>
     <row r="374" spans="1:3" ht="15.75">
       <c r="A374" s="79"/>
@@ -17128,9 +17128,9 @@
       <c r="C374" s="81"/>
     </row>
     <row r="375" spans="1:3" ht="18.75">
-      <c r="A375" s="96"/>
-      <c r="B375" s="96"/>
-      <c r="C375" s="96"/>
+      <c r="A375" s="118"/>
+      <c r="B375" s="118"/>
+      <c r="C375" s="118"/>
     </row>
     <row r="376" spans="1:3" ht="15.75">
       <c r="A376" s="79"/>
@@ -17138,9 +17138,9 @@
       <c r="C376" s="12"/>
     </row>
     <row r="377" spans="1:3" ht="18.75">
-      <c r="A377" s="96"/>
-      <c r="B377" s="96"/>
-      <c r="C377" s="96"/>
+      <c r="A377" s="118"/>
+      <c r="B377" s="118"/>
+      <c r="C377" s="118"/>
     </row>
     <row r="378" spans="1:3" ht="15.75">
       <c r="A378" s="79"/>
@@ -17148,9 +17148,9 @@
       <c r="C378" s="12"/>
     </row>
     <row r="379" spans="1:3" ht="18.75">
-      <c r="A379" s="96"/>
-      <c r="B379" s="96"/>
-      <c r="C379" s="96"/>
+      <c r="A379" s="118"/>
+      <c r="B379" s="118"/>
+      <c r="C379" s="118"/>
     </row>
     <row r="380" spans="1:3" ht="15.75">
       <c r="A380" s="79"/>
@@ -17158,9 +17158,9 @@
       <c r="C380" s="12"/>
     </row>
     <row r="381" spans="1:3" ht="18.75">
-      <c r="A381" s="96"/>
-      <c r="B381" s="96"/>
-      <c r="C381" s="96"/>
+      <c r="A381" s="118"/>
+      <c r="B381" s="118"/>
+      <c r="C381" s="118"/>
     </row>
     <row r="382" spans="1:3" ht="15.75">
       <c r="A382" s="79"/>
@@ -17168,9 +17168,9 @@
       <c r="C382" s="12"/>
     </row>
     <row r="383" spans="1:3" ht="18.75">
-      <c r="A383" s="96"/>
-      <c r="B383" s="96"/>
-      <c r="C383" s="96"/>
+      <c r="A383" s="118"/>
+      <c r="B383" s="118"/>
+      <c r="C383" s="118"/>
     </row>
     <row r="384" spans="1:3" ht="15.75">
       <c r="A384" s="79"/>
@@ -17178,9 +17178,9 @@
       <c r="C384" s="12"/>
     </row>
     <row r="385" spans="1:3" ht="18.75">
-      <c r="A385" s="96"/>
-      <c r="B385" s="96"/>
-      <c r="C385" s="96"/>
+      <c r="A385" s="118"/>
+      <c r="B385" s="118"/>
+      <c r="C385" s="118"/>
     </row>
     <row r="386" spans="1:3" ht="15.75">
       <c r="A386" s="79"/>
@@ -17219,16 +17219,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A377:C377"/>
     <mergeCell ref="A302:C302"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
@@ -17240,6 +17230,16 @@
     <mergeCell ref="A181:C181"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A377:C377"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.19685039370078741" bottom="0.15748031496062992" header="0.15748031496062992" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17263,12 +17263,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="128" t="s">
         <v>801</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="31.5">
       <c r="A3" s="30" t="s">
@@ -17759,12 +17759,12 @@
       <c r="C39" s="56"/>
     </row>
     <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="129" t="s">
         <v>803</v>
       </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
     </row>
     <row r="41" spans="1:4" ht="31.5">
       <c r="A41" s="30" t="s">
@@ -17822,12 +17822,12 @@
       <c r="B45" s="50"/>
     </row>
     <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="130" t="s">
         <v>804</v>
       </c>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="127"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="132"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="38" t="s">
@@ -17978,12 +17978,12 @@
       <c r="D59" s="75"/>
     </row>
     <row r="60" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A60" s="123" t="s">
+      <c r="A60" s="128" t="s">
         <v>822</v>
       </c>
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="128"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="133"/>
     </row>
     <row r="61" spans="1:4" ht="17.25">
       <c r="A61" s="38" t="s">
@@ -18404,12 +18404,12 @@
       <c r="J86" s="26"/>
       <c r="K86" s="41"/>
       <c r="L86" s="41"/>
-      <c r="M86" s="122"/>
-      <c r="N86" s="121"/>
-      <c r="O86" s="121"/>
-      <c r="P86" s="121"/>
-      <c r="Q86" s="121"/>
-      <c r="R86" s="121"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="136"/>
+      <c r="O86" s="136"/>
+      <c r="P86" s="136"/>
+      <c r="Q86" s="136"/>
+      <c r="R86" s="136"/>
     </row>
     <row r="87" spans="1:18" ht="17.25">
       <c r="A87" s="38" t="s">
@@ -18426,12 +18426,12 @@
       <c r="J87" s="26"/>
       <c r="K87" s="28"/>
       <c r="L87" s="61"/>
-      <c r="M87" s="122"/>
-      <c r="N87" s="121"/>
-      <c r="O87" s="121"/>
-      <c r="P87" s="121"/>
-      <c r="Q87" s="121"/>
-      <c r="R87" s="121"/>
+      <c r="M87" s="137"/>
+      <c r="N87" s="136"/>
+      <c r="O87" s="136"/>
+      <c r="P87" s="136"/>
+      <c r="Q87" s="136"/>
+      <c r="R87" s="136"/>
     </row>
     <row r="88" spans="1:18" ht="17.25">
       <c r="A88" s="38" t="s">
@@ -18622,12 +18622,12 @@
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="121"/>
+      <c r="K96" s="136"/>
       <c r="L96" s="28"/>
-      <c r="M96" s="122"/>
-      <c r="N96" s="121"/>
-      <c r="O96" s="121"/>
-      <c r="P96" s="122"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="136"/>
+      <c r="O96" s="136"/>
+      <c r="P96" s="137"/>
       <c r="Q96" s="26"/>
       <c r="R96" s="26"/>
     </row>
@@ -18644,12 +18644,12 @@
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="26"/>
-      <c r="K97" s="121"/>
+      <c r="K97" s="136"/>
       <c r="L97" s="28"/>
-      <c r="M97" s="122"/>
-      <c r="N97" s="121"/>
-      <c r="O97" s="121"/>
-      <c r="P97" s="122"/>
+      <c r="M97" s="137"/>
+      <c r="N97" s="136"/>
+      <c r="O97" s="136"/>
+      <c r="P97" s="137"/>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
     </row>
@@ -19008,12 +19008,12 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A126" s="120" t="s">
+      <c r="A126" s="134" t="s">
         <v>824</v>
       </c>
-      <c r="B126" s="120"/>
-      <c r="C126" s="120"/>
-      <c r="D126" s="120"/>
+      <c r="B126" s="134"/>
+      <c r="C126" s="134"/>
+      <c r="D126" s="134"/>
     </row>
     <row r="127" spans="1:4" ht="17.25">
       <c r="A127" s="38" t="s">
@@ -19080,10 +19080,10 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="16.5">
-      <c r="A132" s="103" t="s">
+      <c r="A132" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B132" s="117" t="s">
+      <c r="B132" s="135" t="s">
         <v>524</v>
       </c>
       <c r="C132" s="68" t="s">
@@ -19094,8 +19094,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="16.5">
-      <c r="A133" s="104"/>
-      <c r="B133" s="117"/>
+      <c r="A133" s="140"/>
+      <c r="B133" s="135"/>
       <c r="C133" s="68" t="s">
         <v>826</v>
       </c>
@@ -19192,10 +19192,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="16.5">
-      <c r="A141" s="103" t="s">
+      <c r="A141" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B141" s="117" t="s">
+      <c r="B141" s="135" t="s">
         <v>550</v>
       </c>
       <c r="C141" s="68" t="s">
@@ -19206,8 +19206,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="16.5">
-      <c r="A142" s="104"/>
-      <c r="B142" s="117"/>
+      <c r="A142" s="140"/>
+      <c r="B142" s="135"/>
       <c r="C142" s="68" t="s">
         <v>829</v>
       </c>
@@ -19252,10 +19252,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="16.5">
-      <c r="A146" s="103" t="s">
+      <c r="A146" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B146" s="117" t="s">
+      <c r="B146" s="135" t="s">
         <v>562</v>
       </c>
       <c r="C146" s="68" t="s">
@@ -19266,8 +19266,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="16.5">
-      <c r="A147" s="104"/>
-      <c r="B147" s="117"/>
+      <c r="A147" s="140"/>
+      <c r="B147" s="135"/>
       <c r="C147" s="68" t="s">
         <v>830</v>
       </c>
@@ -19688,10 +19688,10 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="16.5">
-      <c r="A182" s="103" t="s">
+      <c r="A182" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B182" s="117" t="s">
+      <c r="B182" s="135" t="s">
         <v>622</v>
       </c>
       <c r="C182" s="68" t="s">
@@ -19702,8 +19702,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5">
-      <c r="A183" s="104"/>
-      <c r="B183" s="117"/>
+      <c r="A183" s="140"/>
+      <c r="B183" s="135"/>
       <c r="C183" s="68" t="s">
         <v>831</v>
       </c>
@@ -19726,10 +19726,10 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="16.5">
-      <c r="A185" s="103" t="s">
+      <c r="A185" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B185" s="117" t="s">
+      <c r="B185" s="135" t="s">
         <v>628</v>
       </c>
       <c r="C185" s="68" t="s">
@@ -19740,8 +19740,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="16.5">
-      <c r="A186" s="104"/>
-      <c r="B186" s="117"/>
+      <c r="A186" s="140"/>
+      <c r="B186" s="135"/>
       <c r="C186" s="68" t="s">
         <v>831</v>
       </c>
@@ -19750,10 +19750,10 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5">
-      <c r="A187" s="103" t="s">
+      <c r="A187" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B187" s="117" t="s">
+      <c r="B187" s="135" t="s">
         <v>631</v>
       </c>
       <c r="C187" s="68" t="s">
@@ -19764,8 +19764,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="16.5">
-      <c r="A188" s="104"/>
-      <c r="B188" s="117"/>
+      <c r="A188" s="140"/>
+      <c r="B188" s="135"/>
       <c r="C188" s="68" t="s">
         <v>831</v>
       </c>
@@ -19930,10 +19930,10 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="16.5">
-      <c r="A202" s="103" t="s">
+      <c r="A202" s="139" t="s">
         <v>835</v>
       </c>
-      <c r="B202" s="117" t="s">
+      <c r="B202" s="135" t="s">
         <v>680</v>
       </c>
       <c r="C202" s="68" t="s">
@@ -19944,8 +19944,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="16.5">
-      <c r="A203" s="119"/>
-      <c r="B203" s="117"/>
+      <c r="A203" s="141"/>
+      <c r="B203" s="135"/>
       <c r="C203" s="68" t="s">
         <v>834</v>
       </c>
@@ -19954,8 +19954,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="16.5">
-      <c r="A204" s="104"/>
-      <c r="B204" s="117"/>
+      <c r="A204" s="140"/>
+      <c r="B204" s="135"/>
       <c r="C204" s="68" t="s">
         <v>830</v>
       </c>
@@ -20552,12 +20552,12 @@
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="118" t="s">
+      <c r="A255" s="138" t="s">
         <v>837</v>
       </c>
-      <c r="B255" s="118"/>
-      <c r="C255" s="118"/>
-      <c r="D255" s="118"/>
+      <c r="B255" s="138"/>
+      <c r="C255" s="138"/>
+      <c r="D255" s="138"/>
     </row>
     <row r="256" spans="1:4" ht="17.25">
       <c r="A256" s="38" t="s">
@@ -20584,10 +20584,10 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="16.5">
-      <c r="A258" s="103" t="s">
+      <c r="A258" s="139" t="s">
         <v>838</v>
       </c>
-      <c r="B258" s="117" t="s">
+      <c r="B258" s="135" t="s">
         <v>770</v>
       </c>
       <c r="C258" s="68" t="s">
@@ -20598,8 +20598,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="16.5">
-      <c r="A259" s="104"/>
-      <c r="B259" s="117"/>
+      <c r="A259" s="140"/>
+      <c r="B259" s="135"/>
       <c r="C259" s="68" t="s">
         <v>830</v>
       </c>
@@ -20656,10 +20656,10 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="16.5">
-      <c r="A264" s="103" t="s">
+      <c r="A264" s="139" t="s">
         <v>838</v>
       </c>
-      <c r="B264" s="117" t="s">
+      <c r="B264" s="135" t="s">
         <v>844</v>
       </c>
       <c r="C264" s="68" t="s">
@@ -20670,8 +20670,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="16.5">
-      <c r="A265" s="104"/>
-      <c r="B265" s="117"/>
+      <c r="A265" s="140"/>
+      <c r="B265" s="135"/>
       <c r="C265" s="68" t="s">
         <v>848</v>
       </c>
@@ -20704,12 +20704,12 @@
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="114" t="s">
+      <c r="A269" s="142" t="s">
         <v>849</v>
       </c>
-      <c r="B269" s="115"/>
-      <c r="C269" s="115"/>
-      <c r="D269" s="116"/>
+      <c r="B269" s="143"/>
+      <c r="C269" s="143"/>
+      <c r="D269" s="144"/>
     </row>
     <row r="270" spans="1:4" ht="17.25">
       <c r="A270" s="38" t="s">
@@ -20884,12 +20884,12 @@
       <c r="D284" s="76"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="102" t="s">
+      <c r="A285" s="145" t="s">
         <v>851</v>
       </c>
-      <c r="B285" s="102"/>
-      <c r="C285" s="102"/>
-      <c r="D285" s="102"/>
+      <c r="B285" s="145"/>
+      <c r="C285" s="145"/>
+      <c r="D285" s="145"/>
     </row>
     <row r="286" spans="1:4" ht="17.25">
       <c r="A286" s="38" t="s">
@@ -21174,12 +21174,12 @@
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="102" t="s">
+      <c r="A310" s="145" t="s">
         <v>853</v>
       </c>
-      <c r="B310" s="102"/>
-      <c r="C310" s="102"/>
-      <c r="D310" s="102"/>
+      <c r="B310" s="145"/>
+      <c r="C310" s="145"/>
+      <c r="D310" s="145"/>
     </row>
     <row r="311" spans="1:4" ht="17.25">
       <c r="A311" s="38" t="s">
@@ -21622,12 +21622,12 @@
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="107" t="s">
+      <c r="A347" s="149" t="s">
         <v>855</v>
       </c>
-      <c r="B347" s="107"/>
-      <c r="C347" s="107"/>
-      <c r="D347" s="107"/>
+      <c r="B347" s="149"/>
+      <c r="C347" s="149"/>
+      <c r="D347" s="149"/>
     </row>
     <row r="348" spans="1:4" ht="17.25">
       <c r="A348" s="43" t="s">
@@ -21837,7 +21837,7 @@
       <c r="A365" s="43" t="s">
         <v>950</v>
       </c>
-      <c r="B365" s="105" t="s">
+      <c r="B365" s="146" t="s">
         <v>874</v>
       </c>
       <c r="C365" s="68" t="s">
@@ -21851,7 +21851,7 @@
       <c r="A366" s="43" t="s">
         <v>950</v>
       </c>
-      <c r="B366" s="105"/>
+      <c r="B366" s="146"/>
       <c r="C366" s="68" t="s">
         <v>933</v>
       </c>
@@ -22160,26 +22160,26 @@
       </c>
     </row>
     <row r="392" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A392" s="106" t="s">
+      <c r="A392" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="B392" s="105" t="s">
+      <c r="B392" s="146" t="s">
         <v>934</v>
       </c>
       <c r="C392" s="68" t="s">
         <v>898</v>
       </c>
-      <c r="D392" s="105">
+      <c r="D392" s="146">
         <v>8000</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A393" s="106"/>
-      <c r="B393" s="105"/>
+      <c r="A393" s="147"/>
+      <c r="B393" s="146"/>
       <c r="C393" s="68" t="s">
         <v>935</v>
       </c>
-      <c r="D393" s="105"/>
+      <c r="D393" s="146"/>
     </row>
     <row r="394" spans="1:4" ht="16.5">
       <c r="A394" s="43" t="s">
@@ -22206,10 +22206,10 @@
       </c>
     </row>
     <row r="396" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A396" s="103" t="s">
+      <c r="A396" s="139" t="s">
         <v>950</v>
       </c>
-      <c r="B396" s="108" t="s">
+      <c r="B396" s="150" t="s">
         <v>955</v>
       </c>
       <c r="D396" s="67">
@@ -22217,8 +22217,8 @@
       </c>
     </row>
     <row r="397" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A397" s="104"/>
-      <c r="B397" s="109"/>
+      <c r="A397" s="140"/>
+      <c r="B397" s="151"/>
       <c r="C397" s="68" t="s">
         <v>956</v>
       </c>
@@ -22625,26 +22625,26 @@
       </c>
     </row>
     <row r="431" spans="1:4" ht="16.5">
-      <c r="A431" s="106" t="s">
+      <c r="A431" s="147" t="s">
         <v>950</v>
       </c>
       <c r="B431" s="67" t="s">
         <v>929</v>
       </c>
-      <c r="C431" s="113" t="s">
+      <c r="C431" s="148" t="s">
         <v>936</v>
       </c>
-      <c r="D431" s="108">
+      <c r="D431" s="150">
         <v>15000</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="16.5">
-      <c r="A432" s="106"/>
+      <c r="A432" s="147"/>
       <c r="B432" s="67" t="s">
         <v>930</v>
       </c>
-      <c r="C432" s="113"/>
-      <c r="D432" s="109"/>
+      <c r="C432" s="148"/>
+      <c r="D432" s="151"/>
     </row>
     <row r="433" spans="1:4" ht="16.5">
       <c r="A433" s="43" t="s">
@@ -22683,12 +22683,12 @@
       </c>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="110" t="s">
+      <c r="A437" s="152" t="s">
         <v>939</v>
       </c>
-      <c r="B437" s="111"/>
-      <c r="C437" s="111"/>
-      <c r="D437" s="112"/>
+      <c r="B437" s="153"/>
+      <c r="C437" s="153"/>
+      <c r="D437" s="154"/>
     </row>
     <row r="438" spans="1:4" ht="16.5">
       <c r="A438" s="38" t="s">
@@ -22755,10 +22755,10 @@
       </c>
     </row>
     <row r="443" spans="1:4" ht="16.5">
-      <c r="A443" s="106" t="s">
+      <c r="A443" s="147" t="s">
         <v>951</v>
       </c>
-      <c r="B443" s="108" t="s">
+      <c r="B443" s="150" t="s">
         <v>942</v>
       </c>
       <c r="C443" s="68" t="s">
@@ -22769,8 +22769,8 @@
       </c>
     </row>
     <row r="444" spans="1:4" ht="16.5">
-      <c r="A444" s="106"/>
-      <c r="B444" s="109"/>
+      <c r="A444" s="147"/>
+      <c r="B444" s="151"/>
       <c r="C444" s="68" t="s">
         <v>949</v>
       </c>
@@ -22833,12 +22833,12 @@
       </c>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="107" t="s">
+      <c r="A450" s="149" t="s">
         <v>952</v>
       </c>
-      <c r="B450" s="107"/>
-      <c r="C450" s="107"/>
-      <c r="D450" s="107"/>
+      <c r="B450" s="149"/>
+      <c r="C450" s="149"/>
+      <c r="D450" s="149"/>
     </row>
     <row r="451" spans="1:4" ht="16.5">
       <c r="A451" s="38" t="s">
@@ -23117,10 +23117,10 @@
       </c>
     </row>
     <row r="474" spans="1:4" ht="16.5">
-      <c r="A474" s="106" t="s">
+      <c r="A474" s="147" t="s">
         <v>961</v>
       </c>
-      <c r="B474" s="105" t="s">
+      <c r="B474" s="146" t="s">
         <v>661</v>
       </c>
       <c r="C474" s="68" t="s">
@@ -23131,8 +23131,8 @@
       </c>
     </row>
     <row r="475" spans="1:4" ht="16.5">
-      <c r="A475" s="106"/>
-      <c r="B475" s="105"/>
+      <c r="A475" s="147"/>
+      <c r="B475" s="146"/>
       <c r="C475" s="68" t="s">
         <v>958</v>
       </c>
@@ -23439,12 +23439,12 @@
       </c>
     </row>
     <row r="501" spans="1:4">
-      <c r="A501" s="102" t="s">
+      <c r="A501" s="145" t="s">
         <v>962</v>
       </c>
-      <c r="B501" s="102"/>
-      <c r="C501" s="102"/>
-      <c r="D501" s="102"/>
+      <c r="B501" s="145"/>
+      <c r="C501" s="145"/>
+      <c r="D501" s="145"/>
     </row>
     <row r="502" spans="1:4" ht="16.5">
       <c r="A502" s="38" t="s">
@@ -23711,12 +23711,12 @@
       </c>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="102" t="s">
+      <c r="A525" s="145" t="s">
         <v>989</v>
       </c>
-      <c r="B525" s="102"/>
-      <c r="C525" s="102"/>
-      <c r="D525" s="102"/>
+      <c r="B525" s="145"/>
+      <c r="C525" s="145"/>
+      <c r="D525" s="145"/>
     </row>
     <row r="526" spans="1:4" ht="16.5">
       <c r="A526" s="38" t="s">
@@ -24163,10 +24163,10 @@
       </c>
     </row>
     <row r="563" spans="1:4" ht="16.5">
-      <c r="A563" s="103" t="s">
+      <c r="A563" s="139" t="s">
         <v>991</v>
       </c>
-      <c r="B563" s="105" t="s">
+      <c r="B563" s="146" t="s">
         <v>977</v>
       </c>
       <c r="C563" s="68" t="s">
@@ -24177,8 +24177,8 @@
       </c>
     </row>
     <row r="564" spans="1:4" ht="16.5">
-      <c r="A564" s="104"/>
-      <c r="B564" s="105"/>
+      <c r="A564" s="140"/>
+      <c r="B564" s="146"/>
       <c r="C564" s="68" t="s">
         <v>830</v>
       </c>
@@ -24319,10 +24319,10 @@
       </c>
     </row>
     <row r="576" spans="1:4" ht="16.5">
-      <c r="A576" s="103" t="s">
+      <c r="A576" s="139" t="s">
         <v>991</v>
       </c>
-      <c r="B576" s="105" t="s">
+      <c r="B576" s="146" t="s">
         <v>468</v>
       </c>
       <c r="C576" s="68" t="s">
@@ -24333,8 +24333,8 @@
       </c>
     </row>
     <row r="577" spans="1:4" ht="16.5">
-      <c r="A577" s="104"/>
-      <c r="B577" s="105"/>
+      <c r="A577" s="140"/>
+      <c r="B577" s="146"/>
       <c r="C577" s="68" t="s">
         <v>830</v>
       </c>
@@ -24800,23 +24800,35 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="R86:R87"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A576:A577"/>
+    <mergeCell ref="A563:A564"/>
+    <mergeCell ref="B576:B577"/>
+    <mergeCell ref="B563:B564"/>
+    <mergeCell ref="A501:D501"/>
+    <mergeCell ref="B474:B475"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="A450:D450"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="A443:A444"/>
+    <mergeCell ref="B443:B444"/>
+    <mergeCell ref="A437:D437"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="C431:C432"/>
+    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="A310:D310"/>
+    <mergeCell ref="B365:B366"/>
+    <mergeCell ref="D392:D393"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A264:A265"/>
     <mergeCell ref="A255:D255"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A141:A142"/>
@@ -24831,35 +24843,23 @@
     <mergeCell ref="B141:B142"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="C431:C432"/>
-    <mergeCell ref="A431:A432"/>
-    <mergeCell ref="A310:D310"/>
-    <mergeCell ref="B365:B366"/>
-    <mergeCell ref="D392:D393"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A501:D501"/>
-    <mergeCell ref="B474:B475"/>
-    <mergeCell ref="A474:A475"/>
-    <mergeCell ref="A450:D450"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="A443:A444"/>
-    <mergeCell ref="B443:B444"/>
-    <mergeCell ref="A437:D437"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A576:A577"/>
-    <mergeCell ref="A563:A564"/>
-    <mergeCell ref="B576:B577"/>
-    <mergeCell ref="B563:B564"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="Q86:Q87"/>
+    <mergeCell ref="R86:R87"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A126:D126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
